--- a/BackTest/2019-10-19 BackTest XLM.xlsx
+++ b/BackTest/2019-10-19 BackTest XLM.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.7999999999999687</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-20</v>
+      </c>
       <c r="L12" t="n">
         <v>75.52000000000001</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1.19999999999996</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>33.33333333333439</v>
+      </c>
       <c r="L13" t="n">
         <v>75.55</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.499999999999957</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
       <c r="L14" t="n">
         <v>75.55</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.499999999999957</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="n">
         <v>75.55</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.499999999999957</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" t="n">
         <v>75.55</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>1.499999999999957</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-9.090909090908857</v>
+      </c>
       <c r="L17" t="n">
         <v>75.55</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>1.599999999999952</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>9.090909090908857</v>
+      </c>
       <c r="L18" t="n">
         <v>75.55</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>1.599999999999952</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
       <c r="L19" t="n">
         <v>75.56</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>1.599999999999952</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
       <c r="L20" t="n">
         <v>75.56</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1.599999999999952</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>24.99999999999911</v>
+      </c>
       <c r="L21" t="n">
         <v>75.56</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>1.599999999999952</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-50.00000000000178</v>
+      </c>
       <c r="L22" t="n">
         <v>75.58000000000001</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>1.599999999999952</v>
       </c>
       <c r="K23" t="n">
-        <v>7.692307692307525</v>
+        <v>100</v>
       </c>
       <c r="L23" t="n">
         <v>75.56000000000002</v>
@@ -1466,7 +1488,7 @@
         <v>1.69999999999996</v>
       </c>
       <c r="K24" t="n">
-        <v>14.28571428571487</v>
+        <v>100</v>
       </c>
       <c r="L24" t="n">
         <v>75.58000000000001</v>
@@ -1515,7 +1537,7 @@
         <v>1.69999999999996</v>
       </c>
       <c r="K25" t="n">
-        <v>14.28571428571487</v>
+        <v>100</v>
       </c>
       <c r="L25" t="n">
         <v>75.60000000000002</v>
@@ -1564,7 +1586,7 @@
         <v>1.799999999999969</v>
       </c>
       <c r="K26" t="n">
-        <v>6.666666666666414</v>
+        <v>33.33333333333017</v>
       </c>
       <c r="L26" t="n">
         <v>75.61000000000003</v>
@@ -1613,7 +1635,7 @@
         <v>1.799999999999969</v>
       </c>
       <c r="K27" t="n">
-        <v>6.666666666666414</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>75.62000000000003</v>
@@ -1711,7 +1733,7 @@
         <v>1.899999999999963</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>-33.33333333333017</v>
       </c>
       <c r="L29" t="n">
         <v>75.61000000000003</v>
@@ -1760,7 +1782,7 @@
         <v>1.899999999999963</v>
       </c>
       <c r="K30" t="n">
-        <v>-7.692307692307356</v>
+        <v>-33.33333333333017</v>
       </c>
       <c r="L30" t="n">
         <v>75.60000000000002</v>
@@ -1860,7 +1882,7 @@
         <v>2.099999999999952</v>
       </c>
       <c r="K32" t="n">
-        <v>7.692307692307356</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L32" t="n">
         <v>75.59000000000002</v>
@@ -1911,7 +1933,7 @@
         <v>2.099999999999952</v>
       </c>
       <c r="K33" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L33" t="n">
         <v>75.58000000000001</v>
@@ -1962,7 +1984,7 @@
         <v>2.099999999999952</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L34" t="n">
         <v>75.56000000000002</v>
@@ -2013,7 +2035,7 @@
         <v>2.199999999999946</v>
       </c>
       <c r="K35" t="n">
-        <v>-14.28571428571371</v>
+        <v>-50</v>
       </c>
       <c r="L35" t="n">
         <v>75.53</v>
@@ -2064,7 +2086,7 @@
         <v>2.299999999999955</v>
       </c>
       <c r="K36" t="n">
-        <v>-25.00000000000044</v>
+        <v>-60.00000000000114</v>
       </c>
       <c r="L36" t="n">
         <v>75.5</v>
@@ -2115,7 +2137,7 @@
         <v>2.399999999999963</v>
       </c>
       <c r="K37" t="n">
-        <v>-11.11111111111041</v>
+        <v>-33.33333333333176</v>
       </c>
       <c r="L37" t="n">
         <v>75.47999999999999</v>
@@ -2166,7 +2188,7 @@
         <v>2.399999999999963</v>
       </c>
       <c r="K38" t="n">
-        <v>-24.99999999999822</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L38" t="n">
         <v>75.45999999999999</v>
@@ -2217,7 +2239,7 @@
         <v>2.499999999999972</v>
       </c>
       <c r="K39" t="n">
-        <v>-33.33333333333228</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L39" t="n">
         <v>75.43999999999998</v>
@@ -2268,7 +2290,7 @@
         <v>2.599999999999966</v>
       </c>
       <c r="K40" t="n">
-        <v>-39.99999999999858</v>
+        <v>-66.6666666666643</v>
       </c>
       <c r="L40" t="n">
         <v>75.41</v>
@@ -2319,7 +2341,7 @@
         <v>2.599999999999966</v>
       </c>
       <c r="K41" t="n">
-        <v>-39.99999999999858</v>
+        <v>-59.99999999999772</v>
       </c>
       <c r="L41" t="n">
         <v>75.36999999999999</v>
@@ -2370,7 +2392,7 @@
         <v>2.599999999999966</v>
       </c>
       <c r="K42" t="n">
-        <v>-39.99999999999858</v>
+        <v>-59.99999999999772</v>
       </c>
       <c r="L42" t="n">
         <v>75.34</v>
@@ -2421,7 +2443,7 @@
         <v>2.599999999999966</v>
       </c>
       <c r="K43" t="n">
-        <v>-39.99999999999858</v>
+        <v>-59.99999999999772</v>
       </c>
       <c r="L43" t="n">
         <v>75.31</v>
@@ -2472,7 +2494,7 @@
         <v>2.699999999999974</v>
       </c>
       <c r="K44" t="n">
-        <v>-60</v>
+        <v>-59.99999999999886</v>
       </c>
       <c r="L44" t="n">
         <v>75.27000000000001</v>
@@ -2523,7 +2545,7 @@
         <v>2.699999999999974</v>
       </c>
       <c r="K45" t="n">
-        <v>-60</v>
+        <v>-49.99999999999822</v>
       </c>
       <c r="L45" t="n">
         <v>75.24000000000001</v>
@@ -2574,7 +2596,7 @@
         <v>2.899999999999963</v>
       </c>
       <c r="K46" t="n">
-        <v>-63.63636363636294</v>
+        <v>-100</v>
       </c>
       <c r="L46" t="n">
         <v>75.20000000000002</v>
@@ -2625,7 +2647,7 @@
         <v>2.999999999999957</v>
       </c>
       <c r="K47" t="n">
-        <v>-50</v>
+        <v>-66.66666666666825</v>
       </c>
       <c r="L47" t="n">
         <v>75.16000000000001</v>
@@ -2676,7 +2698,7 @@
         <v>2.999999999999957</v>
       </c>
       <c r="K48" t="n">
-        <v>-50</v>
+        <v>-60.00000000000114</v>
       </c>
       <c r="L48" t="n">
         <v>75.12000000000002</v>
@@ -2727,7 +2749,7 @@
         <v>2.999999999999957</v>
       </c>
       <c r="K49" t="n">
-        <v>-45.45454545454569</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L49" t="n">
         <v>75.09000000000002</v>
@@ -2778,7 +2800,7 @@
         <v>2.999999999999957</v>
       </c>
       <c r="K50" t="n">
-        <v>-45.45454545454569</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L50" t="n">
         <v>75.07000000000002</v>
@@ -2829,7 +2851,7 @@
         <v>3.099999999999952</v>
       </c>
       <c r="K51" t="n">
-        <v>-45.45454545454569</v>
+        <v>-20.00000000000227</v>
       </c>
       <c r="L51" t="n">
         <v>75.06000000000002</v>
@@ -2880,7 +2902,7 @@
         <v>3.099999999999952</v>
       </c>
       <c r="K52" t="n">
-        <v>-40.00000000000057</v>
+        <v>-20.00000000000227</v>
       </c>
       <c r="L52" t="n">
         <v>75.05000000000001</v>
@@ -2931,7 +2953,7 @@
         <v>3.199999999999946</v>
       </c>
       <c r="K53" t="n">
-        <v>-45.45454545454569</v>
+        <v>-20</v>
       </c>
       <c r="L53" t="n">
         <v>75.03</v>
@@ -2982,7 +3004,7 @@
         <v>3.29999999999994</v>
       </c>
       <c r="K54" t="n">
-        <v>-33.33333333333412</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>75.03</v>
@@ -3033,7 +3055,7 @@
         <v>3.399999999999935</v>
       </c>
       <c r="K55" t="n">
-        <v>-33.33333333333412</v>
+        <v>20</v>
       </c>
       <c r="L55" t="n">
         <v>75.02000000000001</v>
@@ -3084,7 +3106,7 @@
         <v>3.399999999999935</v>
       </c>
       <c r="K56" t="n">
-        <v>-27.27272727272751</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>75.03</v>
@@ -3135,7 +3157,7 @@
         <v>3.499999999999929</v>
       </c>
       <c r="K57" t="n">
-        <v>-27.27272727272915</v>
+        <v>20</v>
       </c>
       <c r="L57" t="n">
         <v>75.04000000000001</v>
@@ -3186,7 +3208,7 @@
         <v>3.599999999999937</v>
       </c>
       <c r="K58" t="n">
-        <v>-16.66666666666726</v>
+        <v>33.33333333333491</v>
       </c>
       <c r="L58" t="n">
         <v>75.06000000000002</v>
@@ -3237,7 +3259,7 @@
         <v>3.599999999999937</v>
       </c>
       <c r="K59" t="n">
-        <v>-9.090909090908857</v>
+        <v>33.33333333333491</v>
       </c>
       <c r="L59" t="n">
         <v>75.08000000000001</v>
@@ -3288,7 +3310,7 @@
         <v>3.699999999999946</v>
       </c>
       <c r="K60" t="n">
-        <v>-9.090909090910031</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>75.09000000000002</v>
@@ -3339,7 +3361,7 @@
         <v>3.699999999999946</v>
       </c>
       <c r="K61" t="n">
-        <v>-9.090909090910031</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>75.09000000000002</v>
@@ -3390,7 +3412,7 @@
         <v>4.099999999999952</v>
       </c>
       <c r="K62" t="n">
-        <v>20</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L62" t="n">
         <v>75.13000000000002</v>
@@ -3441,7 +3463,7 @@
         <v>4.299999999999955</v>
       </c>
       <c r="K63" t="n">
-        <v>5.882352941176175</v>
+        <v>20</v>
       </c>
       <c r="L63" t="n">
         <v>75.16000000000001</v>
@@ -3492,7 +3514,7 @@
         <v>4.299999999999955</v>
       </c>
       <c r="K64" t="n">
-        <v>12.50000000000033</v>
+        <v>33.33333333333228</v>
       </c>
       <c r="L64" t="n">
         <v>75.18000000000001</v>
@@ -3543,7 +3565,7 @@
         <v>4.299999999999955</v>
       </c>
       <c r="K65" t="n">
-        <v>12.50000000000033</v>
+        <v>33.33333333333228</v>
       </c>
       <c r="L65" t="n">
         <v>75.21000000000001</v>
@@ -3594,7 +3616,7 @@
         <v>4.499999999999957</v>
       </c>
       <c r="K66" t="n">
-        <v>37.49999999999978</v>
+        <v>39.99999999999943</v>
       </c>
       <c r="L66" t="n">
         <v>75.26000000000001</v>
@@ -3645,7 +3667,7 @@
         <v>4.69999999999996</v>
       </c>
       <c r="K67" t="n">
-        <v>17.64705882352921</v>
+        <v>9.090909090908387</v>
       </c>
       <c r="L67" t="n">
         <v>75.28</v>
@@ -3696,7 +3718,7 @@
         <v>4.69999999999996</v>
       </c>
       <c r="K68" t="n">
-        <v>17.64705882352921</v>
+        <v>9.090909090908387</v>
       </c>
       <c r="L68" t="n">
         <v>75.28999999999999</v>
@@ -3747,7 +3769,7 @@
         <v>4.69999999999996</v>
       </c>
       <c r="K69" t="n">
-        <v>17.64705882352921</v>
+        <v>20</v>
       </c>
       <c r="L69" t="n">
         <v>75.29999999999998</v>
@@ -3798,7 +3820,7 @@
         <v>4.799999999999969</v>
       </c>
       <c r="K70" t="n">
-        <v>22.2222222222224</v>
+        <v>27.27272727272774</v>
       </c>
       <c r="L70" t="n">
         <v>75.32999999999997</v>
@@ -3849,7 +3871,7 @@
         <v>4.799999999999969</v>
       </c>
       <c r="K71" t="n">
-        <v>17.6470588235299</v>
+        <v>-14.28571428571312</v>
       </c>
       <c r="L71" t="n">
         <v>75.35999999999997</v>
@@ -3900,7 +3922,7 @@
         <v>4.799999999999969</v>
       </c>
       <c r="K72" t="n">
-        <v>17.6470588235299</v>
+        <v>20.00000000000114</v>
       </c>
       <c r="L72" t="n">
         <v>75.34999999999997</v>
@@ -3951,7 +3973,7 @@
         <v>4.899999999999963</v>
       </c>
       <c r="K73" t="n">
-        <v>29.41176470588206</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L73" t="n">
         <v>75.36999999999998</v>
@@ -4002,7 +4024,7 @@
         <v>4.899999999999963</v>
       </c>
       <c r="K74" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L74" t="n">
         <v>75.38999999999997</v>
@@ -4053,7 +4075,7 @@
         <v>4.999999999999957</v>
       </c>
       <c r="K75" t="n">
-        <v>25</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L75" t="n">
         <v>75.39999999999998</v>
@@ -4104,7 +4126,7 @@
         <v>5.099999999999966</v>
       </c>
       <c r="K76" t="n">
-        <v>17.64705882352892</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>75.37999999999997</v>
@@ -4155,7 +4177,7 @@
         <v>5.199999999999974</v>
       </c>
       <c r="K77" t="n">
-        <v>17.64705882352961</v>
+        <v>20.00000000000114</v>
       </c>
       <c r="L77" t="n">
         <v>75.38999999999997</v>
@@ -4206,7 +4228,7 @@
         <v>5.199999999999974</v>
       </c>
       <c r="K78" t="n">
-        <v>12.49999999999989</v>
+        <v>20.00000000000114</v>
       </c>
       <c r="L78" t="n">
         <v>75.39999999999998</v>
@@ -4257,7 +4279,7 @@
         <v>5.299999999999969</v>
       </c>
       <c r="K79" t="n">
-        <v>17.64705882352892</v>
+        <v>19.99999999999886</v>
       </c>
       <c r="L79" t="n">
         <v>75.41999999999999</v>
@@ -4308,7 +4330,7 @@
         <v>5.299999999999969</v>
       </c>
       <c r="K80" t="n">
-        <v>25</v>
+        <v>19.99999999999886</v>
       </c>
       <c r="L80" t="n">
         <v>75.42999999999998</v>
@@ -4359,7 +4381,7 @@
         <v>5.299999999999969</v>
       </c>
       <c r="K81" t="n">
-        <v>25</v>
+        <v>19.99999999999886</v>
       </c>
       <c r="L81" t="n">
         <v>75.43999999999998</v>
@@ -4461,7 +4483,7 @@
         <v>5.299999999999969</v>
       </c>
       <c r="K83" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>75.44999999999999</v>
@@ -4512,7 +4534,7 @@
         <v>5.299999999999969</v>
       </c>
       <c r="K84" t="n">
-        <v>20</v>
+        <v>33.33333333333017</v>
       </c>
       <c r="L84" t="n">
         <v>75.44999999999999</v>
@@ -4614,7 +4636,7 @@
         <v>5.499999999999972</v>
       </c>
       <c r="K86" t="n">
-        <v>-20</v>
+        <v>-33.33333333333649</v>
       </c>
       <c r="L86" t="n">
         <v>75.43999999999998</v>
@@ -4665,7 +4687,7 @@
         <v>5.599999999999966</v>
       </c>
       <c r="K87" t="n">
-        <v>-11.11111111111041</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L87" t="n">
         <v>75.41999999999999</v>
@@ -4716,7 +4738,7 @@
         <v>5.69999999999996</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L88" t="n">
         <v>75.41</v>
@@ -4767,7 +4789,7 @@
         <v>5.69999999999996</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L89" t="n">
         <v>75.38999999999999</v>
@@ -4818,7 +4840,7 @@
         <v>5.69999999999996</v>
       </c>
       <c r="K90" t="n">
-        <v>-11.11111111111216</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L90" t="n">
         <v>75.36999999999998</v>
@@ -4869,7 +4891,7 @@
         <v>5.69999999999996</v>
       </c>
       <c r="K91" t="n">
-        <v>-11.11111111111216</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L91" t="n">
         <v>75.34999999999998</v>
@@ -4920,7 +4942,7 @@
         <v>5.799999999999955</v>
       </c>
       <c r="K92" t="n">
-        <v>-20.00000000000057</v>
+        <v>-60.00000000000114</v>
       </c>
       <c r="L92" t="n">
         <v>75.31999999999998</v>
@@ -4971,7 +4993,7 @@
         <v>5.899999999999949</v>
       </c>
       <c r="K93" t="n">
-        <v>-20.00000000000057</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="L93" t="n">
         <v>75.29999999999998</v>
@@ -5022,7 +5044,7 @@
         <v>5.999999999999943</v>
       </c>
       <c r="K94" t="n">
-        <v>-27.27272727272751</v>
+        <v>-20</v>
       </c>
       <c r="L94" t="n">
         <v>75.26999999999998</v>
@@ -5073,7 +5095,7 @@
         <v>5.999999999999943</v>
       </c>
       <c r="K95" t="n">
-        <v>-20.00000000000057</v>
+        <v>-20</v>
       </c>
       <c r="L95" t="n">
         <v>75.25999999999999</v>
@@ -5124,7 +5146,7 @@
         <v>5.999999999999943</v>
       </c>
       <c r="K96" t="n">
-        <v>-11.11111111111076</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>75.25</v>
@@ -5175,7 +5197,7 @@
         <v>6.199999999999946</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>20.00000000000227</v>
       </c>
       <c r="L97" t="n">
         <v>75.27</v>
@@ -5226,7 +5248,7 @@
         <v>6.399999999999949</v>
       </c>
       <c r="K98" t="n">
-        <v>-16.66666666666726</v>
+        <v>-14.28571428571371</v>
       </c>
       <c r="L98" t="n">
         <v>75.26000000000001</v>
@@ -5277,7 +5299,7 @@
         <v>6.499999999999943</v>
       </c>
       <c r="K99" t="n">
-        <v>-16.66666666666726</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>75.26000000000001</v>
@@ -5328,7 +5350,7 @@
         <v>6.599999999999937</v>
       </c>
       <c r="K100" t="n">
-        <v>-23.07692307692341</v>
+        <v>-11.11111111111076</v>
       </c>
       <c r="L100" t="n">
         <v>75.25000000000001</v>
@@ -5379,7 +5401,7 @@
         <v>6.599999999999937</v>
       </c>
       <c r="K101" t="n">
-        <v>-23.07692307692341</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
         <v>75.24000000000002</v>
@@ -5430,7 +5452,7 @@
         <v>6.699999999999946</v>
       </c>
       <c r="K102" t="n">
-        <v>-28.57142857142944</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L102" t="n">
         <v>75.23000000000002</v>
@@ -5481,7 +5503,7 @@
         <v>6.79999999999994</v>
       </c>
       <c r="K103" t="n">
-        <v>-33.33333333333396</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L103" t="n">
         <v>75.20000000000002</v>
@@ -5532,7 +5554,7 @@
         <v>6.899999999999935</v>
       </c>
       <c r="K104" t="n">
-        <v>-37.50000000000044</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L104" t="n">
         <v>75.17000000000002</v>
@@ -5583,7 +5605,7 @@
         <v>6.899999999999935</v>
       </c>
       <c r="K105" t="n">
-        <v>-28.57142857142872</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L105" t="n">
         <v>75.14000000000001</v>
@@ -5634,7 +5656,7 @@
         <v>6.999999999999929</v>
       </c>
       <c r="K106" t="n">
-        <v>-20.00000000000038</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L106" t="n">
         <v>75.12</v>
@@ -5685,7 +5707,7 @@
         <v>6.999999999999929</v>
       </c>
       <c r="K107" t="n">
-        <v>-14.28571428571487</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="L107" t="n">
         <v>75.08000000000001</v>
@@ -5736,7 +5758,7 @@
         <v>7.099999999999923</v>
       </c>
       <c r="K108" t="n">
-        <v>-14.28571428571487</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="L108" t="n">
         <v>75.07000000000001</v>
@@ -5787,7 +5809,7 @@
         <v>7.199999999999918</v>
       </c>
       <c r="K109" t="n">
-        <v>-20.00000000000038</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="L109" t="n">
         <v>75.04000000000001</v>
@@ -5838,7 +5860,7 @@
         <v>7.39999999999992</v>
       </c>
       <c r="K110" t="n">
-        <v>-29.41176470588304</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L110" t="n">
         <v>75</v>
@@ -5889,7 +5911,7 @@
         <v>7.499999999999929</v>
       </c>
       <c r="K111" t="n">
-        <v>-22.22222222222214</v>
+        <v>-24.99999999999911</v>
       </c>
       <c r="L111" t="n">
         <v>74.97</v>
@@ -5940,7 +5962,7 @@
         <v>7.499999999999929</v>
       </c>
       <c r="K112" t="n">
-        <v>-17.64705882352951</v>
+        <v>-14.28571428571371</v>
       </c>
       <c r="L112" t="n">
         <v>74.94999999999999</v>
@@ -5991,7 +6013,7 @@
         <v>7.499999999999929</v>
       </c>
       <c r="K113" t="n">
-        <v>-24.99999999999978</v>
+        <v>0</v>
       </c>
       <c r="L113" t="n">
         <v>74.93999999999998</v>
@@ -6042,7 +6064,7 @@
         <v>7.599999999999937</v>
       </c>
       <c r="K114" t="n">
-        <v>-25.00000000000044</v>
+        <v>-14.28571428571544</v>
       </c>
       <c r="L114" t="n">
         <v>74.92999999999998</v>
@@ -6093,7 +6115,7 @@
         <v>7.699999999999946</v>
       </c>
       <c r="K115" t="n">
-        <v>-17.64705882352921</v>
+        <v>-14.28571428571312</v>
       </c>
       <c r="L115" t="n">
         <v>74.92999999999998</v>
@@ -6144,7 +6166,7 @@
         <v>7.799999999999955</v>
       </c>
       <c r="K116" t="n">
-        <v>-22.2222222222224</v>
+        <v>-24.99999999999956</v>
       </c>
       <c r="L116" t="n">
         <v>74.90999999999998</v>
@@ -6195,7 +6217,7 @@
         <v>7.799999999999955</v>
       </c>
       <c r="K117" t="n">
-        <v>-37.50000000000033</v>
+        <v>-42.85714285714054</v>
       </c>
       <c r="L117" t="n">
         <v>74.88999999999997</v>
@@ -6246,7 +6268,7 @@
         <v>7.799999999999955</v>
       </c>
       <c r="K118" t="n">
-        <v>-28.57142857142886</v>
+        <v>-33.33333333333176</v>
       </c>
       <c r="L118" t="n">
         <v>74.85999999999997</v>
@@ -6297,7 +6319,7 @@
         <v>7.799999999999955</v>
       </c>
       <c r="K119" t="n">
-        <v>-38.46153846153813</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
         <v>74.83999999999996</v>
@@ -6399,7 +6421,7 @@
         <v>7.899999999999949</v>
       </c>
       <c r="K121" t="n">
-        <v>-38.46153846153813</v>
+        <v>-49.99999999999822</v>
       </c>
       <c r="L121" t="n">
         <v>74.81999999999996</v>
@@ -6450,7 +6472,7 @@
         <v>7.899999999999949</v>
       </c>
       <c r="K122" t="n">
-        <v>-33.33333333333254</v>
+        <v>-49.99999999999822</v>
       </c>
       <c r="L122" t="n">
         <v>74.79999999999998</v>
@@ -6501,7 +6523,7 @@
         <v>7.899999999999949</v>
       </c>
       <c r="K123" t="n">
-        <v>-27.2727272727268</v>
+        <v>-33.33333333333017</v>
       </c>
       <c r="L123" t="n">
         <v>74.77999999999999</v>
@@ -6552,7 +6574,7 @@
         <v>7.899999999999949</v>
       </c>
       <c r="K124" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L124" t="n">
         <v>74.77</v>
@@ -6603,7 +6625,7 @@
         <v>7.899999999999949</v>
       </c>
       <c r="K125" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L125" t="n">
         <v>74.75</v>
@@ -6654,7 +6676,7 @@
         <v>7.899999999999949</v>
       </c>
       <c r="K126" t="n">
-        <v>-33.33333333333228</v>
+        <v>-100</v>
       </c>
       <c r="L126" t="n">
         <v>74.74000000000001</v>
@@ -6705,7 +6727,7 @@
         <v>7.999999999999957</v>
       </c>
       <c r="K127" t="n">
-        <v>-39.99999999999943</v>
+        <v>-100</v>
       </c>
       <c r="L127" t="n">
         <v>74.72000000000001</v>
@@ -6756,7 +6778,7 @@
         <v>8.099999999999952</v>
       </c>
       <c r="K128" t="n">
-        <v>-59.99999999999772</v>
+        <v>-100</v>
       </c>
       <c r="L128" t="n">
         <v>74.69000000000003</v>
@@ -6807,7 +6829,7 @@
         <v>8.199999999999946</v>
       </c>
       <c r="K129" t="n">
-        <v>-39.99999999999943</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L129" t="n">
         <v>74.67000000000003</v>
@@ -6858,7 +6880,7 @@
         <v>8.199999999999946</v>
       </c>
       <c r="K130" t="n">
-        <v>-24.99999999999956</v>
+        <v>-33.33333333333649</v>
       </c>
       <c r="L130" t="n">
         <v>74.65000000000003</v>
@@ -6909,7 +6931,7 @@
         <v>8.299999999999955</v>
       </c>
       <c r="K131" t="n">
-        <v>-24.99999999999956</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
         <v>74.65000000000003</v>
@@ -6960,7 +6982,7 @@
         <v>8.399999999999963</v>
       </c>
       <c r="K132" t="n">
-        <v>-33.33333333333333</v>
+        <v>-20.00000000000114</v>
       </c>
       <c r="L132" t="n">
         <v>74.64000000000003</v>
@@ -7011,7 +7033,7 @@
         <v>8.399999999999963</v>
       </c>
       <c r="K133" t="n">
-        <v>-33.33333333333333</v>
+        <v>-20.00000000000114</v>
       </c>
       <c r="L133" t="n">
         <v>74.63000000000002</v>
@@ -7062,7 +7084,7 @@
         <v>8.499999999999957</v>
       </c>
       <c r="K134" t="n">
-        <v>-33.33333333333228</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L134" t="n">
         <v>74.61000000000003</v>
@@ -7113,7 +7135,7 @@
         <v>8.499999999999957</v>
       </c>
       <c r="K135" t="n">
-        <v>-50</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L135" t="n">
         <v>74.59000000000002</v>
@@ -7164,7 +7186,7 @@
         <v>8.599999999999952</v>
       </c>
       <c r="K136" t="n">
-        <v>-25.00000000000044</v>
+        <v>0</v>
       </c>
       <c r="L136" t="n">
         <v>74.58000000000001</v>
@@ -7215,7 +7237,7 @@
         <v>8.599999999999952</v>
       </c>
       <c r="K137" t="n">
-        <v>-25.00000000000044</v>
+        <v>19.99999999999886</v>
       </c>
       <c r="L137" t="n">
         <v>74.58000000000001</v>
@@ -7266,7 +7288,7 @@
         <v>8.699999999999946</v>
       </c>
       <c r="K138" t="n">
-        <v>-33.33333333333333</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L138" t="n">
         <v>74.58000000000001</v>
@@ -7317,7 +7339,7 @@
         <v>8.79999999999994</v>
       </c>
       <c r="K139" t="n">
-        <v>-39.99999999999972</v>
+        <v>-33.33333333333176</v>
       </c>
       <c r="L139" t="n">
         <v>74.56000000000002</v>
@@ -7368,7 +7390,7 @@
         <v>8.899999999999935</v>
       </c>
       <c r="K140" t="n">
-        <v>-27.27272727272751</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="L140" t="n">
         <v>74.55000000000001</v>
@@ -7419,7 +7441,7 @@
         <v>8.899999999999935</v>
       </c>
       <c r="K141" t="n">
-        <v>-20.00000000000057</v>
+        <v>-20</v>
       </c>
       <c r="L141" t="n">
         <v>74.53</v>
@@ -7470,7 +7492,7 @@
         <v>8.999999999999929</v>
       </c>
       <c r="K142" t="n">
-        <v>-27.27272727272751</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L142" t="n">
         <v>74.51000000000001</v>
@@ -7521,7 +7543,7 @@
         <v>9.099999999999923</v>
       </c>
       <c r="K143" t="n">
-        <v>-16.66666666666726</v>
+        <v>0</v>
       </c>
       <c r="L143" t="n">
         <v>74.5</v>
@@ -7572,7 +7594,7 @@
         <v>9.099999999999923</v>
       </c>
       <c r="K144" t="n">
-        <v>-16.66666666666726</v>
+        <v>0</v>
       </c>
       <c r="L144" t="n">
         <v>74.5</v>
@@ -7623,7 +7645,7 @@
         <v>9.099999999999923</v>
       </c>
       <c r="K145" t="n">
-        <v>-16.66666666666726</v>
+        <v>-20</v>
       </c>
       <c r="L145" t="n">
         <v>74.5</v>
@@ -7674,7 +7696,7 @@
         <v>9.199999999999918</v>
       </c>
       <c r="K146" t="n">
-        <v>-23.07692307692341</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L146" t="n">
         <v>74.47999999999999</v>
@@ -7725,7 +7747,7 @@
         <v>9.299999999999926</v>
       </c>
       <c r="K147" t="n">
-        <v>-23.07692307692341</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="L147" t="n">
         <v>74.44999999999999</v>
@@ -7776,7 +7798,7 @@
         <v>9.699999999999932</v>
       </c>
       <c r="K148" t="n">
-        <v>12.50000000000033</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L148" t="n">
         <v>74.47</v>
@@ -7827,7 +7849,7 @@
         <v>9.79999999999994</v>
       </c>
       <c r="K149" t="n">
-        <v>0</v>
+        <v>11.11111111111041</v>
       </c>
       <c r="L149" t="n">
         <v>74.48999999999999</v>
@@ -7878,7 +7900,7 @@
         <v>9.999999999999929</v>
       </c>
       <c r="K150" t="n">
-        <v>-11.11111111111058</v>
+        <v>-9.090909090908621</v>
       </c>
       <c r="L150" t="n">
         <v>74.47999999999999</v>
@@ -7929,7 +7951,7 @@
         <v>10.09999999999994</v>
       </c>
       <c r="K151" t="n">
-        <v>-22.22222222222275</v>
+        <v>-9.090909090909797</v>
       </c>
       <c r="L151" t="n">
         <v>74.45999999999999</v>
@@ -7980,7 +8002,7 @@
         <v>10.09999999999994</v>
       </c>
       <c r="K152" t="n">
-        <v>-17.64705882352951</v>
+        <v>-20</v>
       </c>
       <c r="L152" t="n">
         <v>74.44999999999999</v>
@@ -8031,7 +8053,7 @@
         <v>10.09999999999994</v>
       </c>
       <c r="K153" t="n">
-        <v>-17.64705882352951</v>
+        <v>-20</v>
       </c>
       <c r="L153" t="n">
         <v>74.42999999999998</v>
@@ -8082,7 +8104,7 @@
         <v>10.09999999999994</v>
       </c>
       <c r="K154" t="n">
-        <v>-12.50000000000033</v>
+        <v>-20</v>
       </c>
       <c r="L154" t="n">
         <v>74.40999999999998</v>
@@ -8133,7 +8155,7 @@
         <v>10.09999999999994</v>
       </c>
       <c r="K155" t="n">
-        <v>-12.50000000000033</v>
+        <v>-11.11111111111181</v>
       </c>
       <c r="L155" t="n">
         <v>74.38999999999997</v>
@@ -8184,7 +8206,7 @@
         <v>10.09999999999994</v>
       </c>
       <c r="K156" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L156" t="n">
         <v>74.37999999999997</v>
@@ -8235,7 +8257,7 @@
         <v>10.19999999999993</v>
       </c>
       <c r="K157" t="n">
-        <v>-24.99999999999978</v>
+        <v>-100</v>
       </c>
       <c r="L157" t="n">
         <v>74.36999999999998</v>
@@ -8286,7 +8308,7 @@
         <v>10.19999999999993</v>
       </c>
       <c r="K158" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L158" t="n">
         <v>74.31999999999998</v>
@@ -8337,7 +8359,7 @@
         <v>10.19999999999993</v>
       </c>
       <c r="K159" t="n">
-        <v>-14.28571428571458</v>
+        <v>-100</v>
       </c>
       <c r="L159" t="n">
         <v>74.27999999999999</v>
@@ -8388,7 +8410,7 @@
         <v>10.19999999999993</v>
       </c>
       <c r="K160" t="n">
-        <v>-23.07692307692291</v>
+        <v>-100</v>
       </c>
       <c r="L160" t="n">
         <v>74.25999999999999</v>
@@ -8439,7 +8461,7 @@
         <v>10.19999999999993</v>
       </c>
       <c r="K161" t="n">
-        <v>-23.07692307692291</v>
+        <v>-100</v>
       </c>
       <c r="L161" t="n">
         <v>74.25</v>
@@ -8490,7 +8512,7 @@
         <v>10.39999999999993</v>
       </c>
       <c r="K162" t="n">
-        <v>0</v>
+        <v>33.33333333333649</v>
       </c>
       <c r="L162" t="n">
         <v>74.26000000000001</v>
@@ -8541,7 +8563,7 @@
         <v>10.49999999999994</v>
       </c>
       <c r="K163" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L163" t="n">
         <v>74.26000000000001</v>
@@ -8592,7 +8614,7 @@
         <v>10.59999999999994</v>
       </c>
       <c r="K164" t="n">
-        <v>-19.99999999999962</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L164" t="n">
         <v>74.25000000000001</v>
@@ -8643,7 +8665,7 @@
         <v>10.59999999999994</v>
       </c>
       <c r="K165" t="n">
-        <v>-19.99999999999962</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L165" t="n">
         <v>74.24000000000002</v>
@@ -8694,7 +8716,7 @@
         <v>10.69999999999995</v>
       </c>
       <c r="K166" t="n">
-        <v>-20.00000000000038</v>
+        <v>-20.00000000000114</v>
       </c>
       <c r="L166" t="n">
         <v>74.22000000000003</v>
@@ -8745,7 +8767,7 @@
         <v>10.69999999999995</v>
       </c>
       <c r="K167" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20.00000000000114</v>
       </c>
       <c r="L167" t="n">
         <v>74.21000000000002</v>
@@ -8796,7 +8818,7 @@
         <v>10.69999999999995</v>
       </c>
       <c r="K168" t="n">
-        <v>-60</v>
+        <v>-20.00000000000114</v>
       </c>
       <c r="L168" t="n">
         <v>74.20000000000002</v>
@@ -8847,7 +8869,7 @@
         <v>10.69999999999995</v>
       </c>
       <c r="K169" t="n">
-        <v>-55.5555555555552</v>
+        <v>-20.00000000000114</v>
       </c>
       <c r="L169" t="n">
         <v>74.19000000000003</v>
@@ -8898,7 +8920,7 @@
         <v>10.69999999999995</v>
       </c>
       <c r="K170" t="n">
-        <v>-42.85714285714344</v>
+        <v>-20.00000000000114</v>
       </c>
       <c r="L170" t="n">
         <v>74.18000000000002</v>
@@ -8949,7 +8971,7 @@
         <v>10.89999999999995</v>
       </c>
       <c r="K171" t="n">
-        <v>0</v>
+        <v>-20.00000000000114</v>
       </c>
       <c r="L171" t="n">
         <v>74.19000000000001</v>
@@ -9000,7 +9022,7 @@
         <v>11.09999999999995</v>
       </c>
       <c r="K172" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L172" t="n">
         <v>74.16000000000001</v>
@@ -9051,7 +9073,7 @@
         <v>11.09999999999995</v>
       </c>
       <c r="K173" t="n">
-        <v>-20</v>
+        <v>-20.00000000000114</v>
       </c>
       <c r="L173" t="n">
         <v>74.14000000000001</v>
@@ -9102,7 +9124,7 @@
         <v>11.09999999999995</v>
       </c>
       <c r="K174" t="n">
-        <v>-20</v>
+        <v>-20.00000000000114</v>
       </c>
       <c r="L174" t="n">
         <v>74.13000000000002</v>
@@ -9153,7 +9175,7 @@
         <v>11.09999999999995</v>
       </c>
       <c r="K175" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L175" t="n">
         <v>74.12000000000002</v>
@@ -9204,7 +9226,7 @@
         <v>11.09999999999995</v>
       </c>
       <c r="K176" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L176" t="n">
         <v>74.12000000000002</v>
@@ -9255,7 +9277,7 @@
         <v>11.09999999999995</v>
       </c>
       <c r="K177" t="n">
-        <v>-11.11111111111181</v>
+        <v>0</v>
       </c>
       <c r="L177" t="n">
         <v>74.12000000000002</v>
@@ -9306,7 +9328,7 @@
         <v>11.19999999999995</v>
       </c>
       <c r="K178" t="n">
-        <v>-20</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L178" t="n">
         <v>74.11000000000001</v>
@@ -9357,7 +9379,7 @@
         <v>11.29999999999994</v>
       </c>
       <c r="K179" t="n">
-        <v>-9.090909090909797</v>
+        <v>0</v>
       </c>
       <c r="L179" t="n">
         <v>74.11000000000001</v>
@@ -9408,7 +9430,7 @@
         <v>11.29999999999994</v>
       </c>
       <c r="K180" t="n">
-        <v>-9.090909090909797</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L180" t="n">
         <v>74.11000000000001</v>
@@ -9459,7 +9481,7 @@
         <v>11.29999999999994</v>
       </c>
       <c r="K181" t="n">
-        <v>-9.090909090909797</v>
+        <v>0</v>
       </c>
       <c r="L181" t="n">
         <v>74.09000000000002</v>
@@ -9510,7 +9532,7 @@
         <v>11.49999999999994</v>
       </c>
       <c r="K182" t="n">
-        <v>-9.090909090909797</v>
+        <v>50.00000000000178</v>
       </c>
       <c r="L182" t="n">
         <v>74.11000000000001</v>
@@ -9561,7 +9583,7 @@
         <v>11.49999999999994</v>
       </c>
       <c r="K183" t="n">
-        <v>0</v>
+        <v>50.00000000000178</v>
       </c>
       <c r="L183" t="n">
         <v>74.13000000000001</v>
@@ -9612,7 +9634,7 @@
         <v>11.49999999999994</v>
       </c>
       <c r="K184" t="n">
-        <v>11.11111111111041</v>
+        <v>50.00000000000178</v>
       </c>
       <c r="L184" t="n">
         <v>74.15000000000001</v>
@@ -9663,7 +9685,7 @@
         <v>11.69999999999995</v>
       </c>
       <c r="K185" t="n">
-        <v>27.2727272727268</v>
+        <v>66.66666666666825</v>
       </c>
       <c r="L185" t="n">
         <v>74.19</v>
@@ -9714,7 +9736,7 @@
         <v>11.69999999999995</v>
       </c>
       <c r="K186" t="n">
-        <v>40.00000000000057</v>
+        <v>66.66666666666825</v>
       </c>
       <c r="L186" t="n">
         <v>74.22999999999999</v>
@@ -9765,7 +9787,7 @@
         <v>11.69999999999995</v>
       </c>
       <c r="K187" t="n">
-        <v>40.00000000000057</v>
+        <v>100</v>
       </c>
       <c r="L187" t="n">
         <v>74.27</v>
@@ -9816,7 +9838,7 @@
         <v>11.89999999999995</v>
       </c>
       <c r="K188" t="n">
-        <v>50.00000000000059</v>
+        <v>100</v>
       </c>
       <c r="L188" t="n">
         <v>74.34</v>
@@ -9867,7 +9889,7 @@
         <v>11.99999999999996</v>
       </c>
       <c r="K189" t="n">
-        <v>38.46153846153813</v>
+        <v>71.42857142856968</v>
       </c>
       <c r="L189" t="n">
         <v>74.39</v>
@@ -9918,7 +9940,7 @@
         <v>11.99999999999996</v>
       </c>
       <c r="K190" t="n">
-        <v>38.46153846153813</v>
+        <v>71.42857142856968</v>
       </c>
       <c r="L190" t="n">
         <v>74.44</v>
@@ -9969,7 +9991,7 @@
         <v>11.99999999999996</v>
       </c>
       <c r="K191" t="n">
-        <v>27.2727272727268</v>
+        <v>59.99999999999772</v>
       </c>
       <c r="L191" t="n">
         <v>74.48999999999999</v>
@@ -10020,7 +10042,7 @@
         <v>11.99999999999996</v>
       </c>
       <c r="K192" t="n">
-        <v>55.5555555555552</v>
+        <v>59.99999999999772</v>
       </c>
       <c r="L192" t="n">
         <v>74.52000000000001</v>
@@ -10071,7 +10093,7 @@
         <v>11.99999999999996</v>
       </c>
       <c r="K193" t="n">
-        <v>55.5555555555552</v>
+        <v>59.99999999999772</v>
       </c>
       <c r="L193" t="n">
         <v>74.55000000000001</v>
@@ -10122,7 +10144,7 @@
         <v>11.99999999999996</v>
       </c>
       <c r="K194" t="n">
-        <v>55.5555555555552</v>
+        <v>33.33333333333017</v>
       </c>
       <c r="L194" t="n">
         <v>74.58000000000001</v>
@@ -10173,7 +10195,7 @@
         <v>11.99999999999996</v>
       </c>
       <c r="K195" t="n">
-        <v>55.5555555555552</v>
+        <v>33.33333333333017</v>
       </c>
       <c r="L195" t="n">
         <v>74.59000000000002</v>
@@ -10224,7 +10246,7 @@
         <v>11.99999999999996</v>
       </c>
       <c r="K196" t="n">
-        <v>55.5555555555552</v>
+        <v>33.33333333333017</v>
       </c>
       <c r="L196" t="n">
         <v>74.60000000000002</v>
@@ -10275,7 +10297,7 @@
         <v>11.99999999999996</v>
       </c>
       <c r="K197" t="n">
-        <v>55.5555555555552</v>
+        <v>-100</v>
       </c>
       <c r="L197" t="n">
         <v>74.61000000000003</v>
@@ -10325,9 +10347,7 @@
       <c r="J198" t="n">
         <v>11.99999999999996</v>
       </c>
-      <c r="K198" t="n">
-        <v>74.99999999999822</v>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>74.60000000000002</v>
       </c>
@@ -10376,9 +10396,7 @@
       <c r="J199" t="n">
         <v>11.99999999999996</v>
       </c>
-      <c r="K199" t="n">
-        <v>71.42857142856968</v>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>74.60000000000002</v>
       </c>
@@ -10427,9 +10445,7 @@
       <c r="J200" t="n">
         <v>11.99999999999996</v>
       </c>
-      <c r="K200" t="n">
-        <v>71.42857142856968</v>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>74.60000000000002</v>
       </c>
@@ -10478,9 +10494,7 @@
       <c r="J201" t="n">
         <v>11.99999999999996</v>
       </c>
-      <c r="K201" t="n">
-        <v>71.42857142856968</v>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>74.60000000000002</v>
       </c>
@@ -10529,9 +10543,7 @@
       <c r="J202" t="n">
         <v>11.99999999999996</v>
       </c>
-      <c r="K202" t="n">
-        <v>59.99999999999772</v>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>74.60000000000002</v>
       </c>
@@ -10580,9 +10592,7 @@
       <c r="J203" t="n">
         <v>11.99999999999996</v>
       </c>
-      <c r="K203" t="n">
-        <v>59.99999999999772</v>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>74.60000000000002</v>
       </c>
@@ -10631,9 +10641,7 @@
       <c r="J204" t="n">
         <v>11.99999999999996</v>
       </c>
-      <c r="K204" t="n">
-        <v>59.99999999999772</v>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>74.60000000000002</v>
       </c>
@@ -10682,9 +10690,7 @@
       <c r="J205" t="n">
         <v>11.99999999999996</v>
       </c>
-      <c r="K205" t="n">
-        <v>33.33333333333017</v>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>74.60000000000002</v>
       </c>
@@ -10733,9 +10739,7 @@
       <c r="J206" t="n">
         <v>11.99999999999996</v>
       </c>
-      <c r="K206" t="n">
-        <v>33.33333333333017</v>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>74.60000000000002</v>
       </c>
@@ -10784,9 +10788,7 @@
       <c r="J207" t="n">
         <v>11.99999999999996</v>
       </c>
-      <c r="K207" t="n">
-        <v>33.33333333333017</v>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>74.60000000000002</v>
       </c>
@@ -10835,9 +10837,7 @@
       <c r="J208" t="n">
         <v>11.99999999999996</v>
       </c>
-      <c r="K208" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>74.60000000000002</v>
       </c>
@@ -11395,7 +11395,7 @@
         <v>12.79999999999997</v>
       </c>
       <c r="K219" t="n">
-        <v>0</v>
+        <v>-14.28571428571544</v>
       </c>
       <c r="L219" t="n">
         <v>74.59000000000002</v>
@@ -11497,7 +11497,7 @@
         <v>12.89999999999996</v>
       </c>
       <c r="K221" t="n">
-        <v>-11.11111111111041</v>
+        <v>-14.28571428571371</v>
       </c>
       <c r="L221" t="n">
         <v>74.57000000000002</v>
@@ -11548,7 +11548,7 @@
         <v>12.89999999999996</v>
       </c>
       <c r="K222" t="n">
-        <v>-11.11111111111041</v>
+        <v>-14.28571428571371</v>
       </c>
       <c r="L222" t="n">
         <v>74.56000000000002</v>
@@ -11599,7 +11599,7 @@
         <v>12.89999999999996</v>
       </c>
       <c r="K223" t="n">
-        <v>-11.11111111111041</v>
+        <v>0</v>
       </c>
       <c r="L223" t="n">
         <v>74.55000000000001</v>
@@ -11650,7 +11650,7 @@
         <v>12.89999999999996</v>
       </c>
       <c r="K224" t="n">
-        <v>-11.11111111111041</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L224" t="n">
         <v>74.55000000000001</v>
@@ -11701,7 +11701,7 @@
         <v>12.89999999999996</v>
       </c>
       <c r="K225" t="n">
-        <v>-11.11111111111041</v>
+        <v>0</v>
       </c>
       <c r="L225" t="n">
         <v>74.53</v>
@@ -11752,7 +11752,7 @@
         <v>12.89999999999996</v>
       </c>
       <c r="K226" t="n">
-        <v>-11.11111111111041</v>
+        <v>0</v>
       </c>
       <c r="L226" t="n">
         <v>74.53</v>
@@ -11803,7 +11803,7 @@
         <v>12.89999999999996</v>
       </c>
       <c r="K227" t="n">
-        <v>-11.11111111111041</v>
+        <v>-100</v>
       </c>
       <c r="L227" t="n">
         <v>74.53</v>
@@ -11854,7 +11854,7 @@
         <v>12.89999999999996</v>
       </c>
       <c r="K228" t="n">
-        <v>-11.11111111111041</v>
+        <v>-100</v>
       </c>
       <c r="L228" t="n">
         <v>74.52000000000001</v>
@@ -11905,7 +11905,7 @@
         <v>12.89999999999996</v>
       </c>
       <c r="K229" t="n">
-        <v>-11.11111111111041</v>
+        <v>-100</v>
       </c>
       <c r="L229" t="n">
         <v>74.51000000000001</v>
@@ -11955,9 +11955,7 @@
       <c r="J230" t="n">
         <v>12.89999999999996</v>
       </c>
-      <c r="K230" t="n">
-        <v>-25.00000000000044</v>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>74.5</v>
       </c>
@@ -12006,9 +12004,7 @@
       <c r="J231" t="n">
         <v>12.89999999999996</v>
       </c>
-      <c r="K231" t="n">
-        <v>-14.28571428571371</v>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>74.5</v>
       </c>
@@ -12058,7 +12054,7 @@
         <v>12.99999999999996</v>
       </c>
       <c r="K232" t="n">
-        <v>-24.99999999999911</v>
+        <v>-100</v>
       </c>
       <c r="L232" t="n">
         <v>74.48999999999999</v>
@@ -12109,7 +12105,7 @@
         <v>12.99999999999996</v>
       </c>
       <c r="K233" t="n">
-        <v>-24.99999999999911</v>
+        <v>-100</v>
       </c>
       <c r="L233" t="n">
         <v>74.47999999999999</v>
@@ -12160,7 +12156,7 @@
         <v>13.09999999999997</v>
       </c>
       <c r="K234" t="n">
-        <v>-25.00000000000044</v>
+        <v>-100</v>
       </c>
       <c r="L234" t="n">
         <v>74.45999999999999</v>
@@ -12211,7 +12207,7 @@
         <v>13.09999999999997</v>
       </c>
       <c r="K235" t="n">
-        <v>-66.66666666666825</v>
+        <v>-100</v>
       </c>
       <c r="L235" t="n">
         <v>74.43999999999998</v>
@@ -12262,7 +12258,7 @@
         <v>13.09999999999997</v>
       </c>
       <c r="K236" t="n">
-        <v>-50.00000000000178</v>
+        <v>-100</v>
       </c>
       <c r="L236" t="n">
         <v>74.41999999999999</v>
@@ -12313,7 +12309,7 @@
         <v>13.09999999999997</v>
       </c>
       <c r="K237" t="n">
-        <v>-50.00000000000178</v>
+        <v>-100</v>
       </c>
       <c r="L237" t="n">
         <v>74.39999999999998</v>
@@ -12618,9 +12614,7 @@
       <c r="J243" t="n">
         <v>13.09999999999997</v>
       </c>
-      <c r="K243" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>74.29999999999995</v>
       </c>
@@ -12670,7 +12664,7 @@
         <v>13.29999999999997</v>
       </c>
       <c r="K244" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L244" t="n">
         <v>74.31999999999996</v>
@@ -12721,7 +12715,7 @@
         <v>13.39999999999996</v>
       </c>
       <c r="K245" t="n">
-        <v>19.99999999999886</v>
+        <v>100</v>
       </c>
       <c r="L245" t="n">
         <v>74.34999999999997</v>
@@ -12772,7 +12766,7 @@
         <v>13.49999999999996</v>
       </c>
       <c r="K246" t="n">
-        <v>0</v>
+        <v>50.00000000000178</v>
       </c>
       <c r="L246" t="n">
         <v>74.36999999999998</v>
@@ -12823,7 +12817,7 @@
         <v>13.49999999999996</v>
       </c>
       <c r="K247" t="n">
-        <v>0</v>
+        <v>50.00000000000178</v>
       </c>
       <c r="L247" t="n">
         <v>74.38999999999997</v>
@@ -12874,7 +12868,7 @@
         <v>13.59999999999995</v>
       </c>
       <c r="K248" t="n">
-        <v>14.28571428571371</v>
+        <v>60.00000000000114</v>
       </c>
       <c r="L248" t="n">
         <v>74.41999999999999</v>
@@ -12925,7 +12919,7 @@
         <v>13.69999999999995</v>
       </c>
       <c r="K249" t="n">
-        <v>0</v>
+        <v>33.33333333333491</v>
       </c>
       <c r="L249" t="n">
         <v>74.43999999999998</v>
@@ -12976,7 +12970,7 @@
         <v>13.79999999999994</v>
       </c>
       <c r="K250" t="n">
-        <v>11.11111111111076</v>
+        <v>42.85714285714401</v>
       </c>
       <c r="L250" t="n">
         <v>74.47</v>
@@ -13027,7 +13021,7 @@
         <v>13.79999999999994</v>
       </c>
       <c r="K251" t="n">
-        <v>11.11111111111076</v>
+        <v>42.85714285714401</v>
       </c>
       <c r="L251" t="n">
         <v>74.5</v>
@@ -13078,7 +13072,7 @@
         <v>13.99999999999993</v>
       </c>
       <c r="K252" t="n">
-        <v>0</v>
+        <v>11.11111111111251</v>
       </c>
       <c r="L252" t="n">
         <v>74.51000000000001</v>
@@ -13129,7 +13123,7 @@
         <v>14.09999999999992</v>
       </c>
       <c r="K253" t="n">
-        <v>9.090909090908857</v>
+        <v>0</v>
       </c>
       <c r="L253" t="n">
         <v>74.53</v>
@@ -13180,7 +13174,7 @@
         <v>14.19999999999992</v>
       </c>
       <c r="K254" t="n">
-        <v>9.090909090910266</v>
+        <v>-25</v>
       </c>
       <c r="L254" t="n">
         <v>74.52000000000001</v>
@@ -13231,7 +13225,7 @@
         <v>14.19999999999992</v>
       </c>
       <c r="K255" t="n">
-        <v>9.090909090910266</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L255" t="n">
         <v>74.5</v>
@@ -13282,7 +13276,7 @@
         <v>14.39999999999991</v>
       </c>
       <c r="K256" t="n">
-        <v>23.07692307692392</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L256" t="n">
         <v>74.51000000000001</v>
@@ -13333,7 +13327,7 @@
         <v>14.59999999999989</v>
       </c>
       <c r="K257" t="n">
-        <v>6.666666666667551</v>
+        <v>-20</v>
       </c>
       <c r="L257" t="n">
         <v>74.5</v>
@@ -13384,7 +13378,7 @@
         <v>14.59999999999989</v>
       </c>
       <c r="K258" t="n">
-        <v>6.666666666667551</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L258" t="n">
         <v>74.47999999999999</v>
@@ -13435,7 +13429,7 @@
         <v>14.79999999999988</v>
       </c>
       <c r="K259" t="n">
-        <v>17.6470588235301</v>
+        <v>0</v>
       </c>
       <c r="L259" t="n">
         <v>74.48999999999999</v>
@@ -13486,7 +13480,7 @@
         <v>15.09999999999988</v>
       </c>
       <c r="K260" t="n">
-        <v>0</v>
+        <v>-23.07692307692392</v>
       </c>
       <c r="L260" t="n">
         <v>74.45999999999999</v>
@@ -13537,7 +13531,7 @@
         <v>15.09999999999988</v>
       </c>
       <c r="K261" t="n">
-        <v>0</v>
+        <v>-9.090909090910266</v>
       </c>
       <c r="L261" t="n">
         <v>74.42999999999998</v>
@@ -13588,7 +13582,7 @@
         <v>15.19999999999987</v>
       </c>
       <c r="K262" t="n">
-        <v>-4.761904761904698</v>
+        <v>-27.27272727272821</v>
       </c>
       <c r="L262" t="n">
         <v>74.41</v>
@@ -13639,7 +13633,7 @@
         <v>15.29999999999988</v>
       </c>
       <c r="K263" t="n">
-        <v>-9.090909090909561</v>
+        <v>-27.27272727272915</v>
       </c>
       <c r="L263" t="n">
         <v>74.36999999999999</v>
@@ -13690,7 +13684,7 @@
         <v>15.29999999999988</v>
       </c>
       <c r="K264" t="n">
-        <v>-20.00000000000114</v>
+        <v>-27.27272727272915</v>
       </c>
       <c r="L264" t="n">
         <v>74.34</v>
@@ -13741,7 +13735,7 @@
         <v>15.49999999999989</v>
       </c>
       <c r="K265" t="n">
-        <v>-14.28571428571467</v>
+        <v>-27.27272727272751</v>
       </c>
       <c r="L265" t="n">
         <v>74.33</v>
@@ -13792,7 +13786,7 @@
         <v>15.49999999999989</v>
       </c>
       <c r="K266" t="n">
-        <v>-10.0000000000005</v>
+        <v>-11.11111111111216</v>
       </c>
       <c r="L266" t="n">
         <v>74.29999999999998</v>
@@ -13843,7 +13837,7 @@
         <v>15.59999999999989</v>
       </c>
       <c r="K267" t="n">
-        <v>-4.761904761904633</v>
+        <v>0</v>
       </c>
       <c r="L267" t="n">
         <v>74.29999999999998</v>
@@ -13894,7 +13888,7 @@
         <v>15.59999999999989</v>
       </c>
       <c r="K268" t="n">
-        <v>-9.999999999999716</v>
+        <v>-24.99999999999822</v>
       </c>
       <c r="L268" t="n">
         <v>74.29999999999998</v>
@@ -13945,7 +13939,7 @@
         <v>15.59999999999989</v>
       </c>
       <c r="K269" t="n">
-        <v>-5.263157894736684</v>
+        <v>20.00000000000114</v>
       </c>
       <c r="L269" t="n">
         <v>74.27999999999999</v>
@@ -13996,7 +13990,7 @@
         <v>15.59999999999989</v>
       </c>
       <c r="K270" t="n">
-        <v>-11.11111111111076</v>
+        <v>20.00000000000114</v>
       </c>
       <c r="L270" t="n">
         <v>74.28999999999999</v>
@@ -14047,7 +14041,7 @@
         <v>15.59999999999989</v>
       </c>
       <c r="K271" t="n">
-        <v>-11.11111111111076</v>
+        <v>49.99999999999822</v>
       </c>
       <c r="L271" t="n">
         <v>74.29999999999998</v>
@@ -14098,7 +14092,7 @@
         <v>15.6999999999999</v>
       </c>
       <c r="K272" t="n">
-        <v>-5.882352941177061</v>
+        <v>49.99999999999822</v>
       </c>
       <c r="L272" t="n">
         <v>74.30999999999997</v>
@@ -14149,7 +14143,7 @@
         <v>15.6999999999999</v>
       </c>
       <c r="K273" t="n">
-        <v>-12.50000000000033</v>
+        <v>49.99999999999822</v>
       </c>
       <c r="L273" t="n">
         <v>74.32999999999997</v>
@@ -14200,7 +14194,7 @@
         <v>15.9999999999999</v>
       </c>
       <c r="K274" t="n">
-        <v>11.11111111111058</v>
+        <v>59.99999999999772</v>
       </c>
       <c r="L274" t="n">
         <v>74.37999999999997</v>
@@ -14251,7 +14245,7 @@
         <v>16.29999999999991</v>
       </c>
       <c r="K275" t="n">
-        <v>23.80952380952387</v>
+        <v>74.99999999999866</v>
       </c>
       <c r="L275" t="n">
         <v>74.43999999999997</v>
@@ -14302,7 +14296,7 @@
         <v>16.29999999999991</v>
       </c>
       <c r="K276" t="n">
-        <v>15.78947368421108</v>
+        <v>71.42857142856968</v>
       </c>
       <c r="L276" t="n">
         <v>74.49999999999997</v>
@@ -14353,7 +14347,7 @@
         <v>16.39999999999991</v>
       </c>
       <c r="K277" t="n">
-        <v>33.33333333333281</v>
+        <v>74.99999999999822</v>
       </c>
       <c r="L277" t="n">
         <v>74.55999999999997</v>
@@ -14404,7 +14398,7 @@
         <v>16.4999999999999</v>
       </c>
       <c r="K278" t="n">
-        <v>26.31578947368413</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L278" t="n">
         <v>74.60999999999999</v>
@@ -14455,7 +14449,7 @@
         <v>16.7999999999999</v>
       </c>
       <c r="K279" t="n">
-        <v>30.00000000000022</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L279" t="n">
         <v>74.68999999999998</v>
@@ -14506,7 +14500,7 @@
         <v>16.89999999999991</v>
       </c>
       <c r="K280" t="n">
-        <v>44.44444444444365</v>
+        <v>53.8461538461525</v>
       </c>
       <c r="L280" t="n">
         <v>74.75999999999999</v>
@@ -14557,7 +14551,7 @@
         <v>16.99999999999991</v>
       </c>
       <c r="K281" t="n">
-        <v>47.36842105263103</v>
+        <v>69.23076923076906</v>
       </c>
       <c r="L281" t="n">
         <v>74.84</v>
@@ -14608,7 +14602,7 @@
         <v>16.99999999999991</v>
       </c>
       <c r="K282" t="n">
-        <v>55.55555555555433</v>
+        <v>69.23076923076906</v>
       </c>
       <c r="L282" t="n">
         <v>74.93000000000001</v>
@@ -14659,7 +14653,7 @@
         <v>16.99999999999991</v>
       </c>
       <c r="K283" t="n">
-        <v>64.70588235294049</v>
+        <v>60</v>
       </c>
       <c r="L283" t="n">
         <v>75.02000000000001</v>
@@ -14710,7 +14704,7 @@
         <v>16.99999999999991</v>
       </c>
       <c r="K284" t="n">
-        <v>64.70588235294049</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L284" t="n">
         <v>75.08000000000001</v>
@@ -14761,7 +14755,7 @@
         <v>16.99999999999991</v>
       </c>
       <c r="K285" t="n">
-        <v>59.99999999999924</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L285" t="n">
         <v>75.11000000000003</v>
@@ -14812,7 +14806,7 @@
         <v>17.19999999999992</v>
       </c>
       <c r="K286" t="n">
-        <v>64.70588235294049</v>
+        <v>50</v>
       </c>
       <c r="L286" t="n">
         <v>75.16000000000003</v>
@@ -14863,7 +14857,7 @@
         <v>17.29999999999993</v>
       </c>
       <c r="K287" t="n">
-        <v>52.94117647058676</v>
+        <v>49.99999999999734</v>
       </c>
       <c r="L287" t="n">
         <v>75.19000000000003</v>
@@ -14914,7 +14908,7 @@
         <v>17.39999999999992</v>
       </c>
       <c r="K288" t="n">
-        <v>44.44444444444365</v>
+        <v>0</v>
       </c>
       <c r="L288" t="n">
         <v>75.22000000000003</v>
@@ -14965,7 +14959,7 @@
         <v>17.39999999999992</v>
       </c>
       <c r="K289" t="n">
-        <v>44.44444444444365</v>
+        <v>20.00000000000114</v>
       </c>
       <c r="L289" t="n">
         <v>75.22000000000003</v>
@@ -15016,7 +15010,7 @@
         <v>17.39999999999992</v>
       </c>
       <c r="K290" t="n">
-        <v>44.44444444444365</v>
+        <v>0</v>
       </c>
       <c r="L290" t="n">
         <v>75.23000000000003</v>
@@ -15067,7 +15061,7 @@
         <v>17.49999999999991</v>
       </c>
       <c r="K291" t="n">
-        <v>47.36842105263063</v>
+        <v>19.99999999999886</v>
       </c>
       <c r="L291" t="n">
         <v>75.24000000000002</v>
@@ -15118,7 +15112,7 @@
         <v>17.59999999999991</v>
       </c>
       <c r="K292" t="n">
-        <v>47.36842105263174</v>
+        <v>0</v>
       </c>
       <c r="L292" t="n">
         <v>75.24000000000002</v>
@@ -15169,7 +15163,7 @@
         <v>17.79999999999991</v>
       </c>
       <c r="K293" t="n">
-        <v>52.38095238095257</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L293" t="n">
         <v>75.26000000000002</v>
@@ -15220,7 +15214,7 @@
         <v>17.79999999999991</v>
       </c>
       <c r="K294" t="n">
-        <v>44.4444444444448</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L294" t="n">
         <v>75.28</v>
@@ -15271,7 +15265,7 @@
         <v>17.99999999999991</v>
       </c>
       <c r="K295" t="n">
-        <v>17.64705882352921</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L295" t="n">
         <v>75.28</v>
@@ -15322,7 +15316,7 @@
         <v>17.99999999999991</v>
       </c>
       <c r="K296" t="n">
-        <v>17.64705882352921</v>
+        <v>-14.28571428571371</v>
       </c>
       <c r="L296" t="n">
         <v>75.26000000000002</v>
@@ -15373,7 +15367,7 @@
         <v>18.29999999999991</v>
       </c>
       <c r="K297" t="n">
-        <v>26.31578947368413</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L297" t="n">
         <v>75.28000000000002</v>
@@ -15424,7 +15418,7 @@
         <v>18.39999999999991</v>
       </c>
       <c r="K298" t="n">
-        <v>26.31578947368413</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L298" t="n">
         <v>75.30000000000001</v>
@@ -15475,7 +15469,7 @@
         <v>18.4999999999999</v>
       </c>
       <c r="K299" t="n">
-        <v>17.64705882352921</v>
+        <v>27.27272727272751</v>
       </c>
       <c r="L299" t="n">
         <v>75.33000000000001</v>
@@ -15526,7 +15520,7 @@
         <v>18.4999999999999</v>
       </c>
       <c r="K300" t="n">
-        <v>25.00000000000044</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L300" t="n">
         <v>75.36</v>
@@ -15577,7 +15571,7 @@
         <v>18.4999999999999</v>
       </c>
       <c r="K301" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L301" t="n">
         <v>75.38000000000001</v>
@@ -15628,7 +15622,7 @@
         <v>18.4999999999999</v>
       </c>
       <c r="K302" t="n">
-        <v>20</v>
+        <v>14.28571428571371</v>
       </c>
       <c r="L302" t="n">
         <v>75.41</v>
@@ -15679,7 +15673,7 @@
         <v>18.4999999999999</v>
       </c>
       <c r="K303" t="n">
-        <v>20</v>
+        <v>14.28571428571371</v>
       </c>
       <c r="L303" t="n">
         <v>75.42</v>
@@ -15730,7 +15724,7 @@
         <v>18.4999999999999</v>
       </c>
       <c r="K304" t="n">
-        <v>20</v>
+        <v>60.00000000000114</v>
       </c>
       <c r="L304" t="n">
         <v>75.43000000000001</v>
@@ -15832,7 +15826,7 @@
         <v>18.9999999999999</v>
       </c>
       <c r="K306" t="n">
-        <v>-22.22222222222275</v>
+        <v>-71.42857142857258</v>
       </c>
       <c r="L306" t="n">
         <v>75.41</v>
@@ -15883,7 +15877,7 @@
         <v>18.9999999999999</v>
       </c>
       <c r="K307" t="n">
-        <v>-17.64705882352951</v>
+        <v>-66.66666666666825</v>
       </c>
       <c r="L307" t="n">
         <v>75.36</v>
@@ -15934,7 +15928,7 @@
         <v>18.9999999999999</v>
       </c>
       <c r="K308" t="n">
-        <v>-12.50000000000033</v>
+        <v>-100</v>
       </c>
       <c r="L308" t="n">
         <v>75.32000000000001</v>
@@ -15985,7 +15979,7 @@
         <v>18.9999999999999</v>
       </c>
       <c r="K309" t="n">
-        <v>-12.50000000000033</v>
+        <v>-100</v>
       </c>
       <c r="L309" t="n">
         <v>75.27000000000001</v>
@@ -16036,7 +16030,7 @@
         <v>19.09999999999989</v>
       </c>
       <c r="K310" t="n">
-        <v>-5.882352941177061</v>
+        <v>-66.66666666666825</v>
       </c>
       <c r="L310" t="n">
         <v>75.23</v>
@@ -16087,7 +16081,7 @@
         <v>19.09999999999989</v>
       </c>
       <c r="K311" t="n">
-        <v>-12.50000000000033</v>
+        <v>-66.66666666666825</v>
       </c>
       <c r="L311" t="n">
         <v>75.19000000000001</v>
@@ -16138,7 +16132,7 @@
         <v>19.29999999999988</v>
       </c>
       <c r="K312" t="n">
-        <v>-17.64705882352951</v>
+        <v>-75.00000000000088</v>
       </c>
       <c r="L312" t="n">
         <v>75.13000000000001</v>
@@ -16189,7 +16183,7 @@
         <v>19.29999999999988</v>
       </c>
       <c r="K313" t="n">
-        <v>-33.33333333333396</v>
+        <v>-75.00000000000088</v>
       </c>
       <c r="L313" t="n">
         <v>75.07000000000001</v>
@@ -16240,7 +16234,7 @@
         <v>19.29999999999988</v>
       </c>
       <c r="K314" t="n">
-        <v>-33.33333333333396</v>
+        <v>-60.00000000000114</v>
       </c>
       <c r="L314" t="n">
         <v>75.01000000000001</v>
@@ -16291,7 +16285,7 @@
         <v>19.29999999999988</v>
       </c>
       <c r="K315" t="n">
-        <v>-23.07692307692341</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L315" t="n">
         <v>74.97999999999999</v>
@@ -16342,7 +16336,7 @@
         <v>19.49999999999987</v>
       </c>
       <c r="K316" t="n">
-        <v>-6.666666666667425</v>
+        <v>20</v>
       </c>
       <c r="L316" t="n">
         <v>74.98999999999999</v>
@@ -16393,7 +16387,7 @@
         <v>19.59999999999987</v>
       </c>
       <c r="K317" t="n">
-        <v>-38.46153846153981</v>
+        <v>0</v>
       </c>
       <c r="L317" t="n">
         <v>74.98999999999999</v>
@@ -16444,7 +16438,7 @@
         <v>19.69999999999986</v>
       </c>
       <c r="K318" t="n">
-        <v>-23.07692307692476</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L318" t="n">
         <v>75</v>
@@ -16495,7 +16489,7 @@
         <v>19.79999999999986</v>
       </c>
       <c r="K319" t="n">
-        <v>-38.46153846153981</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L319" t="n">
         <v>75</v>
@@ -16546,7 +16540,7 @@
         <v>19.89999999999985</v>
       </c>
       <c r="K320" t="n">
-        <v>-28.57142857143003</v>
+        <v>0</v>
       </c>
       <c r="L320" t="n">
         <v>75</v>
@@ -16597,7 +16591,7 @@
         <v>19.99999999999984</v>
       </c>
       <c r="K321" t="n">
-        <v>-33.3333333333346</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L321" t="n">
         <v>74.98999999999999</v>
@@ -16648,7 +16642,7 @@
         <v>20.09999999999984</v>
       </c>
       <c r="K322" t="n">
-        <v>-25.00000000000133</v>
+        <v>25</v>
       </c>
       <c r="L322" t="n">
         <v>75.01000000000001</v>
@@ -16699,7 +16693,7 @@
         <v>20.19999999999985</v>
       </c>
       <c r="K323" t="n">
-        <v>-17.6470588235298</v>
+        <v>33.33333333333439</v>
       </c>
       <c r="L323" t="n">
         <v>75.04000000000001</v>
@@ -16750,7 +16744,7 @@
         <v>20.39999999999985</v>
       </c>
       <c r="K324" t="n">
-        <v>-26.31578947368492</v>
+        <v>9.090909090908857</v>
       </c>
       <c r="L324" t="n">
         <v>75.05000000000001</v>
@@ -16801,7 +16795,7 @@
         <v>20.39999999999985</v>
       </c>
       <c r="K325" t="n">
-        <v>-12.50000000000055</v>
+        <v>-11.11111111111076</v>
       </c>
       <c r="L325" t="n">
         <v>75.06000000000002</v>
@@ -16903,7 +16897,7 @@
         <v>20.39999999999985</v>
       </c>
       <c r="K327" t="n">
-        <v>0</v>
+        <v>-14.28571428571371</v>
       </c>
       <c r="L327" t="n">
         <v>75.05000000000001</v>
@@ -17005,7 +16999,7 @@
         <v>20.39999999999985</v>
       </c>
       <c r="K329" t="n">
-        <v>0</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L329" t="n">
         <v>75.04000000000001</v>
@@ -17056,7 +17050,7 @@
         <v>20.49999999999984</v>
       </c>
       <c r="K330" t="n">
-        <v>0</v>
+        <v>19.99999999999886</v>
       </c>
       <c r="L330" t="n">
         <v>75.04000000000001</v>
@@ -17107,7 +17101,7 @@
         <v>20.69999999999983</v>
       </c>
       <c r="K331" t="n">
-        <v>-12.49999999999978</v>
+        <v>-33.33333333333176</v>
       </c>
       <c r="L331" t="n">
         <v>75.03</v>
@@ -17158,7 +17152,7 @@
         <v>20.79999999999983</v>
       </c>
       <c r="K332" t="n">
-        <v>6.66666666666654</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="L332" t="n">
         <v>75.02000000000001</v>
@@ -17209,7 +17203,7 @@
         <v>20.79999999999983</v>
       </c>
       <c r="K333" t="n">
-        <v>6.66666666666654</v>
+        <v>0</v>
       </c>
       <c r="L333" t="n">
         <v>75</v>
@@ -17260,7 +17254,7 @@
         <v>20.79999999999983</v>
       </c>
       <c r="K334" t="n">
-        <v>6.66666666666654</v>
+        <v>0</v>
       </c>
       <c r="L334" t="n">
         <v>75</v>
@@ -17311,7 +17305,7 @@
         <v>20.89999999999982</v>
       </c>
       <c r="K335" t="n">
-        <v>12.49999999999978</v>
+        <v>20</v>
       </c>
       <c r="L335" t="n">
         <v>75.01000000000001</v>
@@ -17362,7 +17356,7 @@
         <v>21.09999999999981</v>
       </c>
       <c r="K336" t="n">
-        <v>-12.49999999999978</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L336" t="n">
         <v>75</v>
@@ -17464,7 +17458,7 @@
         <v>21.1999999999998</v>
       </c>
       <c r="K338" t="n">
-        <v>-6.66666666666654</v>
+        <v>0</v>
       </c>
       <c r="L338" t="n">
         <v>75</v>
@@ -17515,7 +17509,7 @@
         <v>21.1999999999998</v>
       </c>
       <c r="K339" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L339" t="n">
         <v>75</v>
@@ -17566,7 +17560,7 @@
         <v>21.1999999999998</v>
       </c>
       <c r="K340" t="n">
-        <v>-7.692307692307525</v>
+        <v>20</v>
       </c>
       <c r="L340" t="n">
         <v>74.98999999999999</v>
@@ -17668,7 +17662,7 @@
         <v>21.2999999999998</v>
       </c>
       <c r="K342" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L342" t="n">
         <v>75.01000000000001</v>
@@ -17719,7 +17713,7 @@
         <v>21.39999999999979</v>
       </c>
       <c r="K343" t="n">
-        <v>-16.66666666666766</v>
+        <v>0</v>
       </c>
       <c r="L343" t="n">
         <v>75.01000000000001</v>
@@ -17770,7 +17764,7 @@
         <v>21.39999999999979</v>
       </c>
       <c r="K344" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L344" t="n">
         <v>75.01000000000001</v>
@@ -17821,7 +17815,7 @@
         <v>21.49999999999979</v>
       </c>
       <c r="K345" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L345" t="n">
         <v>74.98999999999999</v>
@@ -17872,7 +17866,7 @@
         <v>21.49999999999979</v>
       </c>
       <c r="K346" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L346" t="n">
         <v>74.98999999999999</v>
@@ -17923,7 +17917,7 @@
         <v>21.49999999999979</v>
       </c>
       <c r="K347" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L347" t="n">
         <v>74.97999999999999</v>
@@ -17974,7 +17968,7 @@
         <v>21.49999999999979</v>
       </c>
       <c r="K348" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L348" t="n">
         <v>74.97</v>
@@ -18025,7 +18019,7 @@
         <v>21.49999999999979</v>
       </c>
       <c r="K349" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L349" t="n">
         <v>74.95999999999999</v>
@@ -18076,7 +18070,7 @@
         <v>21.49999999999979</v>
       </c>
       <c r="K350" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L350" t="n">
         <v>74.94999999999999</v>
@@ -18127,7 +18121,7 @@
         <v>21.49999999999979</v>
       </c>
       <c r="K351" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L351" t="n">
         <v>74.93999999999998</v>
@@ -18178,7 +18172,7 @@
         <v>21.49999999999979</v>
       </c>
       <c r="K352" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L352" t="n">
         <v>74.91999999999999</v>
@@ -18229,7 +18223,7 @@
         <v>21.49999999999979</v>
       </c>
       <c r="K353" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L353" t="n">
         <v>74.90999999999998</v>
@@ -18279,9 +18273,7 @@
       <c r="J354" t="n">
         <v>21.49999999999979</v>
       </c>
-      <c r="K354" t="n">
-        <v>-14.28571428571428</v>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>74.89999999999998</v>
       </c>
@@ -18331,7 +18323,7 @@
         <v>21.5999999999998</v>
       </c>
       <c r="K355" t="n">
-        <v>-42.85714285714401</v>
+        <v>-100</v>
       </c>
       <c r="L355" t="n">
         <v>74.88999999999997</v>
@@ -18382,7 +18374,7 @@
         <v>21.89999999999979</v>
       </c>
       <c r="K356" t="n">
-        <v>24.99999999999911</v>
+        <v>49.99999999999645</v>
       </c>
       <c r="L356" t="n">
         <v>74.90999999999998</v>
@@ -18433,7 +18425,7 @@
         <v>22.09999999999978</v>
       </c>
       <c r="K357" t="n">
-        <v>-11.11111111111076</v>
+        <v>0</v>
       </c>
       <c r="L357" t="n">
         <v>74.90999999999998</v>
@@ -18484,7 +18476,7 @@
         <v>22.19999999999979</v>
       </c>
       <c r="K358" t="n">
-        <v>-20.00000000000057</v>
+        <v>-14.28571428571544</v>
       </c>
       <c r="L358" t="n">
         <v>74.89999999999998</v>
@@ -18535,7 +18527,7 @@
         <v>22.19999999999979</v>
       </c>
       <c r="K359" t="n">
-        <v>-20.00000000000057</v>
+        <v>-14.28571428571544</v>
       </c>
       <c r="L359" t="n">
         <v>74.88999999999997</v>
@@ -18586,7 +18578,7 @@
         <v>22.39999999999979</v>
       </c>
       <c r="K360" t="n">
-        <v>0</v>
+        <v>11.11111111111041</v>
       </c>
       <c r="L360" t="n">
         <v>74.89999999999998</v>
@@ -18637,7 +18629,7 @@
         <v>22.49999999999979</v>
       </c>
       <c r="K361" t="n">
-        <v>-7.692307692307356</v>
+        <v>0</v>
       </c>
       <c r="L361" t="n">
         <v>74.89999999999998</v>
@@ -18688,7 +18680,7 @@
         <v>22.5999999999998</v>
       </c>
       <c r="K362" t="n">
-        <v>-23.07692307692291</v>
+        <v>-9.090909090909797</v>
       </c>
       <c r="L362" t="n">
         <v>74.88999999999997</v>
@@ -18739,7 +18731,7 @@
         <v>22.7999999999998</v>
       </c>
       <c r="K363" t="n">
-        <v>-28.57142857142886</v>
+        <v>-23.07692307692375</v>
       </c>
       <c r="L363" t="n">
         <v>74.85999999999999</v>
@@ -18790,7 +18782,7 @@
         <v>22.89999999999981</v>
       </c>
       <c r="K364" t="n">
-        <v>-19.99999999999962</v>
+        <v>-7.692307692307187</v>
       </c>
       <c r="L364" t="n">
         <v>74.83999999999999</v>
@@ -18841,7 +18833,7 @@
         <v>22.89999999999981</v>
       </c>
       <c r="K365" t="n">
-        <v>-14.28571428571428</v>
+        <v>-39.99999999999858</v>
       </c>
       <c r="L365" t="n">
         <v>74.83</v>
@@ -18892,7 +18884,7 @@
         <v>22.89999999999981</v>
       </c>
       <c r="K366" t="n">
-        <v>-14.28571428571428</v>
+        <v>-24.99999999999956</v>
       </c>
       <c r="L366" t="n">
         <v>74.78999999999999</v>
@@ -18943,7 +18935,7 @@
         <v>22.99999999999982</v>
       </c>
       <c r="K367" t="n">
-        <v>-20.00000000000038</v>
+        <v>-24.99999999999956</v>
       </c>
       <c r="L367" t="n">
         <v>74.76000000000001</v>
@@ -18994,7 +18986,7 @@
         <v>23.09999999999982</v>
       </c>
       <c r="K368" t="n">
-        <v>-12.49999999999989</v>
+        <v>-11.11111111111006</v>
       </c>
       <c r="L368" t="n">
         <v>74.75000000000001</v>
@@ -19045,7 +19037,7 @@
         <v>23.09999999999982</v>
       </c>
       <c r="K369" t="n">
-        <v>-12.49999999999989</v>
+        <v>-42.85714285714054</v>
       </c>
       <c r="L369" t="n">
         <v>74.74000000000002</v>
@@ -19096,7 +19088,7 @@
         <v>23.09999999999982</v>
       </c>
       <c r="K370" t="n">
-        <v>-12.49999999999989</v>
+        <v>-33.33333333333176</v>
       </c>
       <c r="L370" t="n">
         <v>74.71000000000002</v>
@@ -19147,7 +19139,7 @@
         <v>23.29999999999983</v>
       </c>
       <c r="K371" t="n">
-        <v>0</v>
+        <v>14.28571428571487</v>
       </c>
       <c r="L371" t="n">
         <v>74.71000000000002</v>
@@ -19198,7 +19190,7 @@
         <v>23.29999999999983</v>
       </c>
       <c r="K372" t="n">
-        <v>0</v>
+        <v>59.99999999999886</v>
       </c>
       <c r="L372" t="n">
         <v>74.72000000000003</v>
@@ -19249,7 +19241,7 @@
         <v>23.49999999999983</v>
       </c>
       <c r="K373" t="n">
-        <v>-9.999999999999929</v>
+        <v>0</v>
       </c>
       <c r="L373" t="n">
         <v>74.73000000000003</v>
@@ -19300,7 +19292,7 @@
         <v>23.49999999999983</v>
       </c>
       <c r="K374" t="n">
-        <v>-9.999999999999929</v>
+        <v>0</v>
       </c>
       <c r="L374" t="n">
         <v>74.73000000000003</v>
@@ -19351,7 +19343,7 @@
         <v>23.49999999999983</v>
       </c>
       <c r="K375" t="n">
-        <v>-5.263157894736448</v>
+        <v>0</v>
       </c>
       <c r="L375" t="n">
         <v>74.73000000000003</v>
@@ -19402,7 +19394,7 @@
         <v>23.49999999999983</v>
       </c>
       <c r="K376" t="n">
-        <v>-24.99999999999889</v>
+        <v>20.00000000000114</v>
       </c>
       <c r="L376" t="n">
         <v>74.73000000000003</v>
@@ -19453,7 +19445,7 @@
         <v>23.49999999999983</v>
       </c>
       <c r="K377" t="n">
-        <v>-14.285714285714</v>
+        <v>0</v>
       </c>
       <c r="L377" t="n">
         <v>74.74000000000004</v>
@@ -19504,7 +19496,7 @@
         <v>23.49999999999983</v>
       </c>
       <c r="K378" t="n">
-        <v>-7.692307692307019</v>
+        <v>0</v>
       </c>
       <c r="L378" t="n">
         <v>74.74000000000004</v>
@@ -19555,7 +19547,7 @@
         <v>23.59999999999982</v>
       </c>
       <c r="K379" t="n">
-        <v>0</v>
+        <v>19.99999999999886</v>
       </c>
       <c r="L379" t="n">
         <v>74.75000000000003</v>
@@ -19606,7 +19598,7 @@
         <v>23.59999999999982</v>
       </c>
       <c r="K380" t="n">
-        <v>-16.66666666666647</v>
+        <v>-33.33333333333649</v>
       </c>
       <c r="L380" t="n">
         <v>74.76000000000002</v>
@@ -19657,7 +19649,7 @@
         <v>23.69999999999982</v>
       </c>
       <c r="K381" t="n">
-        <v>-16.66666666666647</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L381" t="n">
         <v>74.74000000000002</v>
@@ -19708,7 +19700,7 @@
         <v>23.69999999999982</v>
       </c>
       <c r="K382" t="n">
-        <v>-9.090909090908387</v>
+        <v>0</v>
       </c>
       <c r="L382" t="n">
         <v>74.72000000000003</v>
@@ -19759,7 +19751,7 @@
         <v>23.69999999999982</v>
       </c>
       <c r="K383" t="n">
-        <v>11.11111111111181</v>
+        <v>0</v>
       </c>
       <c r="L383" t="n">
         <v>74.72000000000003</v>
@@ -19963,7 +19955,7 @@
         <v>23.69999999999982</v>
       </c>
       <c r="K387" t="n">
-        <v>14.28571428571544</v>
+        <v>0</v>
       </c>
       <c r="L387" t="n">
         <v>74.72000000000003</v>
@@ -20014,7 +20006,7 @@
         <v>23.79999999999981</v>
       </c>
       <c r="K388" t="n">
-        <v>14.28571428571371</v>
+        <v>0</v>
       </c>
       <c r="L388" t="n">
         <v>74.73000000000002</v>
@@ -20065,7 +20057,7 @@
         <v>23.79999999999981</v>
       </c>
       <c r="K389" t="n">
-        <v>14.28571428571371</v>
+        <v>0</v>
       </c>
       <c r="L389" t="n">
         <v>74.73000000000002</v>
@@ -20116,7 +20108,7 @@
         <v>23.89999999999982</v>
       </c>
       <c r="K390" t="n">
-        <v>25.00000000000044</v>
+        <v>100</v>
       </c>
       <c r="L390" t="n">
         <v>74.74000000000002</v>
@@ -20167,7 +20159,7 @@
         <v>23.99999999999983</v>
       </c>
       <c r="K391" t="n">
-        <v>-14.28571428571544</v>
+        <v>33.33333333333017</v>
       </c>
       <c r="L391" t="n">
         <v>74.75000000000001</v>
@@ -20218,7 +20210,7 @@
         <v>24.09999999999982</v>
       </c>
       <c r="K392" t="n">
-        <v>-25.00000000000044</v>
+        <v>0</v>
       </c>
       <c r="L392" t="n">
         <v>74.75000000000001</v>
@@ -20269,7 +20261,7 @@
         <v>24.39999999999982</v>
       </c>
       <c r="K393" t="n">
-        <v>-33.33333333333333</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L393" t="n">
         <v>74.72</v>
@@ -20320,7 +20312,7 @@
         <v>24.59999999999982</v>
       </c>
       <c r="K394" t="n">
-        <v>-45.45454545454569</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L394" t="n">
         <v>74.67</v>
@@ -20371,7 +20363,7 @@
         <v>24.59999999999982</v>
       </c>
       <c r="K395" t="n">
-        <v>-45.45454545454569</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L395" t="n">
         <v>74.62</v>
@@ -20422,7 +20414,7 @@
         <v>24.69999999999982</v>
       </c>
       <c r="K396" t="n">
-        <v>-33.33333333333412</v>
+        <v>-40.00000000000057</v>
       </c>
       <c r="L396" t="n">
         <v>74.58</v>
@@ -20473,7 +20465,7 @@
         <v>24.79999999999983</v>
       </c>
       <c r="K397" t="n">
-        <v>-23.07692307692291</v>
+        <v>-39.99999999999858</v>
       </c>
       <c r="L397" t="n">
         <v>74.54999999999998</v>
@@ -20524,7 +20516,7 @@
         <v>24.79999999999983</v>
       </c>
       <c r="K398" t="n">
-        <v>-23.07692307692291</v>
+        <v>-39.99999999999858</v>
       </c>
       <c r="L398" t="n">
         <v>74.50999999999999</v>
@@ -20575,7 +20567,7 @@
         <v>24.79999999999983</v>
       </c>
       <c r="K399" t="n">
-        <v>-33.33333333333254</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L399" t="n">
         <v>74.47</v>
@@ -20626,7 +20618,7 @@
         <v>24.79999999999983</v>
       </c>
       <c r="K400" t="n">
-        <v>-33.33333333333254</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L400" t="n">
         <v>74.41999999999999</v>
@@ -20677,7 +20669,7 @@
         <v>24.89999999999984</v>
       </c>
       <c r="K401" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L401" t="n">
         <v>74.36999999999999</v>
@@ -20728,7 +20720,7 @@
         <v>24.99999999999983</v>
       </c>
       <c r="K402" t="n">
-        <v>-38.46153846153813</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L402" t="n">
         <v>74.31999999999999</v>
@@ -20779,7 +20771,7 @@
         <v>25.09999999999982</v>
       </c>
       <c r="K403" t="n">
-        <v>-28.57142857142886</v>
+        <v>19.99999999999886</v>
       </c>
       <c r="L403" t="n">
         <v>74.30999999999999</v>
@@ -20830,7 +20822,7 @@
         <v>25.09999999999982</v>
       </c>
       <c r="K404" t="n">
-        <v>-28.57142857142886</v>
+        <v>19.99999999999886</v>
       </c>
       <c r="L404" t="n">
         <v>74.31999999999998</v>
@@ -20881,7 +20873,7 @@
         <v>25.19999999999983</v>
       </c>
       <c r="K405" t="n">
-        <v>-19.99999999999962</v>
+        <v>20.00000000000114</v>
       </c>
       <c r="L405" t="n">
         <v>74.33999999999997</v>
@@ -20932,7 +20924,7 @@
         <v>25.29999999999984</v>
       </c>
       <c r="K406" t="n">
-        <v>-25</v>
+        <v>-20.00000000000114</v>
       </c>
       <c r="L406" t="n">
         <v>74.33999999999997</v>
@@ -20983,7 +20975,7 @@
         <v>25.39999999999984</v>
       </c>
       <c r="K407" t="n">
-        <v>-29.41176470588206</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L407" t="n">
         <v>74.31999999999998</v>
@@ -21034,7 +21026,7 @@
         <v>25.49999999999984</v>
       </c>
       <c r="K408" t="n">
-        <v>-41.17647058823471</v>
+        <v>-42.85714285714344</v>
       </c>
       <c r="L408" t="n">
         <v>74.28999999999999</v>
@@ -21085,7 +21077,7 @@
         <v>25.59999999999985</v>
       </c>
       <c r="K409" t="n">
-        <v>-33.33333333333228</v>
+        <v>-24.99999999999956</v>
       </c>
       <c r="L409" t="n">
         <v>74.27</v>
@@ -21136,7 +21128,7 @@
         <v>25.69999999999985</v>
       </c>
       <c r="K410" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L410" t="n">
         <v>74.25999999999999</v>
@@ -21187,7 +21179,7 @@
         <v>25.69999999999985</v>
       </c>
       <c r="K411" t="n">
-        <v>-29.41176470588206</v>
+        <v>14.28571428571312</v>
       </c>
       <c r="L411" t="n">
         <v>74.25999999999999</v>
@@ -21238,7 +21230,7 @@
         <v>25.79999999999984</v>
       </c>
       <c r="K412" t="n">
-        <v>-29.41176470588206</v>
+        <v>-14.28571428571312</v>
       </c>
       <c r="L412" t="n">
         <v>74.25999999999999</v>
@@ -21289,7 +21281,7 @@
         <v>25.79999999999984</v>
       </c>
       <c r="K413" t="n">
-        <v>-14.28571428571428</v>
+        <v>-14.28571428571312</v>
       </c>
       <c r="L413" t="n">
         <v>74.25</v>
@@ -21340,7 +21332,7 @@
         <v>25.89999999999985</v>
       </c>
       <c r="K414" t="n">
-        <v>-7.692307692308196</v>
+        <v>-42.85714285714344</v>
       </c>
       <c r="L414" t="n">
         <v>74.23</v>
@@ -21391,7 +21383,7 @@
         <v>25.89999999999985</v>
       </c>
       <c r="K415" t="n">
-        <v>-7.692307692308196</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L415" t="n">
         <v>74.20000000000002</v>
@@ -21442,7 +21434,7 @@
         <v>26.59999999999985</v>
       </c>
       <c r="K416" t="n">
-        <v>26.31578947368374</v>
+        <v>49.99999999999882</v>
       </c>
       <c r="L416" t="n">
         <v>74.25000000000001</v>
@@ -21493,7 +21485,7 @@
         <v>26.79999999999986</v>
       </c>
       <c r="K417" t="n">
-        <v>29.99999999999929</v>
+        <v>69.23076923076906</v>
       </c>
       <c r="L417" t="n">
         <v>74.33000000000001</v>
@@ -21544,7 +21536,7 @@
         <v>26.89999999999985</v>
       </c>
       <c r="K418" t="n">
-        <v>23.80952380952355</v>
+        <v>53.84615384615419</v>
       </c>
       <c r="L418" t="n">
         <v>74.41</v>
@@ -21595,7 +21587,7 @@
         <v>26.99999999999984</v>
       </c>
       <c r="K419" t="n">
-        <v>27.2727272727268</v>
+        <v>53.84615384615419</v>
       </c>
       <c r="L419" t="n">
         <v>74.48999999999999</v>
@@ -21646,7 +21638,7 @@
         <v>27.09999999999984</v>
       </c>
       <c r="K420" t="n">
-        <v>30.43478260869501</v>
+        <v>57.14285714285728</v>
       </c>
       <c r="L420" t="n">
         <v>74.57000000000001</v>
@@ -21697,7 +21689,7 @@
         <v>27.09999999999984</v>
       </c>
       <c r="K421" t="n">
-        <v>36.36363636363619</v>
+        <v>69.23076923076873</v>
       </c>
       <c r="L421" t="n">
         <v>74.65000000000001</v>
@@ -21748,7 +21740,7 @@
         <v>27.09999999999984</v>
       </c>
       <c r="K422" t="n">
-        <v>42.85714285714228</v>
+        <v>69.23076923076873</v>
       </c>
       <c r="L422" t="n">
         <v>74.74000000000001</v>
@@ -21799,7 +21791,7 @@
         <v>27.09999999999984</v>
       </c>
       <c r="K423" t="n">
-        <v>39.99999999999957</v>
+        <v>83.33333333333412</v>
       </c>
       <c r="L423" t="n">
         <v>74.83000000000001</v>
@@ -21850,7 +21842,7 @@
         <v>27.09999999999984</v>
       </c>
       <c r="K424" t="n">
-        <v>39.99999999999957</v>
+        <v>83.33333333333412</v>
       </c>
       <c r="L424" t="n">
         <v>74.93000000000001</v>
@@ -21901,7 +21893,7 @@
         <v>27.19999999999983</v>
       </c>
       <c r="K425" t="n">
-        <v>29.99999999999972</v>
+        <v>33.33333333333491</v>
       </c>
       <c r="L425" t="n">
         <v>75.02000000000001</v>
@@ -21952,7 +21944,7 @@
         <v>27.39999999999984</v>
       </c>
       <c r="K426" t="n">
-        <v>23.80952380952387</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="L426" t="n">
         <v>75.02000000000001</v>
@@ -22003,7 +21995,7 @@
         <v>27.59999999999984</v>
       </c>
       <c r="K427" t="n">
-        <v>36.36363636363619</v>
+        <v>14.28571428571371</v>
       </c>
       <c r="L427" t="n">
         <v>75.02000000000001</v>
@@ -22054,7 +22046,7 @@
         <v>27.59999999999984</v>
       </c>
       <c r="K428" t="n">
-        <v>42.85714285714324</v>
+        <v>0</v>
       </c>
       <c r="L428" t="n">
         <v>75.03</v>
@@ -22105,7 +22097,7 @@
         <v>27.59999999999984</v>
       </c>
       <c r="K429" t="n">
-        <v>40.00000000000014</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L429" t="n">
         <v>75.03</v>
@@ -22156,7 +22148,7 @@
         <v>27.59999999999984</v>
       </c>
       <c r="K430" t="n">
-        <v>36.84210526315821</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L430" t="n">
         <v>75.02000000000001</v>
@@ -22207,7 +22199,7 @@
         <v>27.89999999999984</v>
       </c>
       <c r="K431" t="n">
-        <v>45.45454545454569</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L431" t="n">
         <v>75.03999999999999</v>
@@ -22258,7 +22250,7 @@
         <v>28.09999999999984</v>
       </c>
       <c r="K432" t="n">
-        <v>39.13043478260838</v>
+        <v>0</v>
       </c>
       <c r="L432" t="n">
         <v>75.03999999999999</v>
@@ -22309,7 +22301,7 @@
         <v>28.09999999999984</v>
       </c>
       <c r="K433" t="n">
-        <v>39.13043478260838</v>
+        <v>0</v>
       </c>
       <c r="L433" t="n">
         <v>75.03999999999999</v>
@@ -22360,7 +22352,7 @@
         <v>28.09999999999984</v>
       </c>
       <c r="K434" t="n">
-        <v>45.45454545454569</v>
+        <v>11.11111111111041</v>
       </c>
       <c r="L434" t="n">
         <v>75.03999999999999</v>
@@ -22411,7 +22403,7 @@
         <v>28.19999999999983</v>
       </c>
       <c r="K435" t="n">
-        <v>39.13043478260923</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L435" t="n">
         <v>75.03999999999999</v>
@@ -22462,7 +22454,7 @@
         <v>28.19999999999983</v>
       </c>
       <c r="K436" t="n">
-        <v>12.50000000000033</v>
+        <v>0</v>
       </c>
       <c r="L436" t="n">
         <v>75.06</v>
@@ -22513,7 +22505,7 @@
         <v>28.29999999999983</v>
       </c>
       <c r="K437" t="n">
-        <v>6.666666666666414</v>
+        <v>14.28571428571371</v>
       </c>
       <c r="L437" t="n">
         <v>75.07000000000001</v>
@@ -22615,7 +22607,7 @@
         <v>28.29999999999983</v>
       </c>
       <c r="K439" t="n">
-        <v>7.692307692307356</v>
+        <v>14.28571428571371</v>
       </c>
       <c r="L439" t="n">
         <v>75.09</v>
@@ -22666,7 +22658,7 @@
         <v>28.29999999999983</v>
       </c>
       <c r="K440" t="n">
-        <v>0</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L440" t="n">
         <v>75.10000000000001</v>
@@ -22768,7 +22760,7 @@
         <v>28.39999999999982</v>
       </c>
       <c r="K442" t="n">
-        <v>-7.692307692307356</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L442" t="n">
         <v>75.07000000000002</v>
@@ -22819,7 +22811,7 @@
         <v>28.69999999999982</v>
       </c>
       <c r="K443" t="n">
-        <v>12.50000000000033</v>
+        <v>33.33333333333491</v>
       </c>
       <c r="L443" t="n">
         <v>75.09</v>

--- a/BackTest/2019-10-19 BackTest XLM.xlsx
+++ b/BackTest/2019-10-19 BackTest XLM.xlsx
@@ -6086,13 +6086,17 @@
         <v>74.59000000000005</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="K163" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
@@ -6121,14 +6125,22 @@
         <v>74.57833333333338</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="K164" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6156,14 +6168,22 @@
         <v>74.56666666666671</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="K165" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6191,14 +6211,22 @@
         <v>74.55166666666672</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="K166" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6226,14 +6254,22 @@
         <v>74.53666666666672</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K167" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6267,8 +6303,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6296,18 +6338,20 @@
         <v>74.50500000000007</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>74.09999999999999</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="L169" t="inlineStr"/>
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6335,20 +6379,18 @@
         <v>74.4933333333334</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>74.09999999999999</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M170" t="n">
@@ -6378,20 +6420,18 @@
         <v>74.48333333333341</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>74.3</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M171" t="n">
@@ -6430,11 +6470,11 @@
         <v>74.3</v>
       </c>
       <c r="K172" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M172" t="n">
@@ -6464,16 +6504,14 @@
         <v>74.45666666666676</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>74.09999999999999</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -6507,16 +6545,14 @@
         <v>74.44500000000011</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>74.09999999999999</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -6550,16 +6586,14 @@
         <v>74.43166666666679</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>74.09999999999999</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
@@ -6593,16 +6627,14 @@
         <v>74.42000000000012</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>74.09999999999999</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -6636,16 +6668,14 @@
         <v>74.40833333333346</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>74.09999999999999</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
@@ -6679,16 +6709,14 @@
         <v>74.39500000000012</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>74</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
@@ -6722,16 +6750,14 @@
         <v>74.38333333333345</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>74.09999999999999</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -6774,7 +6800,7 @@
         <v>74.09999999999999</v>
       </c>
       <c r="K180" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
@@ -6817,7 +6843,7 @@
         <v>74.09999999999999</v>
       </c>
       <c r="K181" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
@@ -6857,10 +6883,10 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>74.3</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="K182" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L182" t="inlineStr">
         <is>
@@ -6894,16 +6920,14 @@
         <v>74.34833333333349</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>74.3</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L183" t="inlineStr">
         <is>
@@ -6937,16 +6961,14 @@
         <v>74.34166666666682</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>74.3</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
@@ -6980,16 +7002,14 @@
         <v>74.33833333333349</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
-        <v>74.40000000000001</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L185" t="inlineStr">
         <is>
@@ -7023,16 +7043,14 @@
         <v>74.33500000000016</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
-        <v>74.5</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L186" t="inlineStr">
         <is>
@@ -7066,16 +7084,14 @@
         <v>74.33333333333348</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
-        <v>74.5</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L187" t="inlineStr">
         <is>
@@ -7116,7 +7132,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
@@ -7157,7 +7173,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
@@ -7198,7 +7214,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L190" t="inlineStr">
         <is>
@@ -7239,7 +7255,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
@@ -7280,7 +7296,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L192" t="inlineStr">
         <is>
@@ -7321,7 +7337,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L193" t="inlineStr">
         <is>
@@ -7362,7 +7378,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L194" t="inlineStr">
         <is>
@@ -7403,7 +7419,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L195" t="inlineStr">
         <is>
@@ -7444,7 +7460,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L196" t="inlineStr">
         <is>
@@ -7485,7 +7501,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L197" t="inlineStr">
         <is>
@@ -7526,7 +7542,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L198" t="inlineStr">
         <is>
@@ -7567,7 +7583,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L199" t="inlineStr">
         <is>
@@ -7608,7 +7624,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L200" t="inlineStr">
         <is>
@@ -7649,7 +7665,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L201" t="inlineStr">
         <is>
@@ -7690,7 +7706,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L202" t="inlineStr">
         <is>
@@ -7731,7 +7747,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L203" t="inlineStr">
         <is>
@@ -7772,7 +7788,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L204" t="inlineStr">
         <is>
@@ -7813,7 +7829,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L205" t="inlineStr">
         <is>
@@ -7854,7 +7870,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L206" t="inlineStr">
         <is>
@@ -7895,7 +7911,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L207" t="inlineStr">
         <is>
@@ -7936,7 +7952,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L208" t="inlineStr">
         <is>
@@ -7977,7 +7993,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L209" t="inlineStr">
         <is>
@@ -8018,7 +8034,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L210" t="inlineStr">
         <is>
@@ -8059,7 +8075,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L211" t="inlineStr">
         <is>
@@ -8100,7 +8116,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L212" t="inlineStr">
         <is>
@@ -8141,7 +8157,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L213" t="inlineStr">
         <is>
@@ -8182,7 +8198,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L214" t="inlineStr">
         <is>
@@ -8223,7 +8239,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L215" t="inlineStr">
         <is>
@@ -8264,7 +8280,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L216" t="inlineStr">
         <is>
@@ -8305,7 +8321,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L217" t="inlineStr">
         <is>
@@ -8346,7 +8362,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L218" t="inlineStr">
         <is>
@@ -8387,7 +8403,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L219" t="inlineStr">
         <is>
@@ -8428,7 +8444,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L220" t="inlineStr">
         <is>
@@ -8469,7 +8485,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L221" t="inlineStr">
         <is>
@@ -8510,7 +8526,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L222" t="inlineStr">
         <is>
@@ -8551,7 +8567,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L223" t="inlineStr">
         <is>
@@ -8592,7 +8608,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L224" t="inlineStr">
         <is>
@@ -8633,7 +8649,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L225" t="inlineStr">
         <is>
@@ -8674,7 +8690,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L226" t="inlineStr">
         <is>
@@ -8715,7 +8731,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L227" t="inlineStr">
         <is>
@@ -8756,7 +8772,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L228" t="inlineStr">
         <is>
@@ -8797,7 +8813,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L229" t="inlineStr">
         <is>
@@ -8838,7 +8854,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L230" t="inlineStr">
         <is>
@@ -8879,7 +8895,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L231" t="inlineStr">
         <is>
@@ -8920,7 +8936,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L232" t="inlineStr">
         <is>
@@ -8961,7 +8977,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L233" t="inlineStr">
         <is>
@@ -9002,7 +9018,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L234" t="inlineStr">
         <is>
@@ -9043,7 +9059,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L235" t="inlineStr">
         <is>
@@ -9084,7 +9100,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L236" t="inlineStr">
         <is>
@@ -9125,7 +9141,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L237" t="inlineStr">
         <is>
@@ -9166,7 +9182,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L238" t="inlineStr">
         <is>
@@ -9207,7 +9223,7 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L239" t="inlineStr">
         <is>
@@ -9248,7 +9264,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L240" t="inlineStr">
         <is>
@@ -9289,7 +9305,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L241" t="inlineStr">
         <is>
@@ -9330,7 +9346,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L242" t="inlineStr">
         <is>
@@ -9371,7 +9387,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L243" t="inlineStr">
         <is>
@@ -9405,14 +9421,16 @@
         <v>74.51833333333356</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>74.3</v>
+      </c>
       <c r="K244" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L244" t="inlineStr">
         <is>
@@ -9453,7 +9471,7 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L245" t="inlineStr">
         <is>
@@ -9494,7 +9512,7 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L246" t="inlineStr">
         <is>
@@ -9535,7 +9553,7 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L247" t="inlineStr">
         <is>
@@ -9576,7 +9594,7 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L248" t="inlineStr">
         <is>
@@ -9617,7 +9635,7 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L249" t="inlineStr">
         <is>
@@ -9658,7 +9676,7 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L250" t="inlineStr">
         <is>
@@ -9699,7 +9717,7 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L251" t="inlineStr">
         <is>
@@ -9740,7 +9758,7 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L252" t="inlineStr">
         <is>
@@ -9781,7 +9799,7 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L253" t="inlineStr">
         <is>
@@ -9822,7 +9840,7 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L254" t="inlineStr">
         <is>
@@ -9863,7 +9881,7 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L255" t="inlineStr">
         <is>
@@ -9904,7 +9922,7 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L256" t="inlineStr">
         <is>
@@ -9945,7 +9963,7 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L257" t="inlineStr">
         <is>
@@ -9986,7 +10004,7 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L258" t="inlineStr">
         <is>
@@ -10027,7 +10045,7 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L259" t="inlineStr">
         <is>
@@ -10068,7 +10086,7 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L260" t="inlineStr">
         <is>
@@ -10109,7 +10127,7 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L261" t="inlineStr">
         <is>
@@ -10150,7 +10168,7 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L262" t="inlineStr">
         <is>
@@ -10191,7 +10209,7 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L263" t="inlineStr">
         <is>
@@ -10232,7 +10250,7 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L264" t="inlineStr">
         <is>
@@ -10273,7 +10291,7 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L265" t="inlineStr">
         <is>
@@ -10314,7 +10332,7 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L266" t="inlineStr">
         <is>
@@ -10355,7 +10373,7 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L267" t="inlineStr">
         <is>
@@ -10396,7 +10414,7 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L268" t="inlineStr">
         <is>
@@ -10437,7 +10455,7 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L269" t="inlineStr">
         <is>
@@ -10478,7 +10496,7 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L270" t="inlineStr">
         <is>
@@ -10519,7 +10537,7 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L271" t="inlineStr">
         <is>
@@ -10560,7 +10578,7 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L272" t="inlineStr">
         <is>
@@ -10601,7 +10619,7 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L273" t="inlineStr">
         <is>
@@ -10642,7 +10660,7 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L274" t="inlineStr">
         <is>
@@ -10683,7 +10701,7 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L275" t="inlineStr">
         <is>
@@ -10724,7 +10742,7 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L276" t="inlineStr">
         <is>
@@ -10765,7 +10783,7 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L277" t="inlineStr">
         <is>
@@ -10806,7 +10824,7 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L278" t="inlineStr">
         <is>
@@ -10843,19 +10861,19 @@
         <v>0</v>
       </c>
       <c r="I279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M279" t="n">
-        <v>1</v>
+        <v>1.005752688172043</v>
       </c>
     </row>
     <row r="280">
@@ -10887,14 +10905,8 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10928,14 +10940,8 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10969,14 +10975,8 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -11010,14 +11010,8 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -11051,14 +11045,8 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr"/>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -11092,14 +11080,8 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -11133,14 +11115,8 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr"/>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -11174,14 +11150,8 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr"/>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11215,14 +11185,8 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr"/>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11253,17 +11217,11 @@
         <v>0</v>
       </c>
       <c r="I289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="inlineStr"/>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11297,14 +11255,8 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr"/>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11338,14 +11290,8 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr"/>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11379,14 +11325,8 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="inlineStr"/>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11417,17 +11357,11 @@
         <v>0</v>
       </c>
       <c r="I293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11461,14 +11395,8 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11499,17 +11427,11 @@
         <v>0</v>
       </c>
       <c r="I295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="inlineStr"/>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11543,16 +11465,10 @@
         <v>1</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
       <c r="M296" t="n">
-        <v>1.009844804318489</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -11651,7 +11567,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
@@ -11686,7 +11602,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
@@ -11756,7 +11672,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
@@ -11791,7 +11707,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
@@ -11826,7 +11742,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
@@ -11861,7 +11777,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
@@ -11896,7 +11812,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
@@ -11931,7 +11847,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
@@ -11966,7 +11882,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
@@ -15498,13 +15414,17 @@
         <v>74.64166666666661</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
       </c>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K409" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="L409" t="inlineStr"/>
       <c r="M409" t="n">
         <v>1</v>
@@ -15533,14 +15453,22 @@
         <v>74.63166666666662</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
       </c>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="K410" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -15568,14 +15496,22 @@
         <v>74.62166666666663</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
       </c>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="K411" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -15603,13 +15539,17 @@
         <v>74.60999999999996</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
       </c>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="K412" t="n">
+        <v>74.3</v>
+      </c>
       <c r="L412" t="inlineStr"/>
       <c r="M412" t="n">
         <v>1</v>
@@ -15644,8 +15584,14 @@
         <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="K413" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -15673,14 +15619,22 @@
         <v>74.58499999999998</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
       </c>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="K414" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -15714,8 +15668,14 @@
         <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="K415" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -15743,14 +15703,22 @@
         <v>74.56833333333331</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
       </c>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K416" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -15778,14 +15746,22 @@
         <v>74.56999999999998</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
       </c>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="K417" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15813,14 +15789,22 @@
         <v>74.57166666666664</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
       </c>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>75</v>
+      </c>
+      <c r="K418" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15854,8 +15838,14 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="K419" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -15889,8 +15879,14 @@
         <v>0</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="K420" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -15924,8 +15920,14 @@
         <v>0</v>
       </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="K421" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -15959,8 +15961,14 @@
         <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="K422" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-19 BackTest XLM.xlsx
+++ b/BackTest/2019-10-19 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2134,7 +2134,7 @@
         <v>5712904.9743</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>5712904.9743</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>5711040.4626</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>6251040.4626</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>6791040.4626</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>6971040.4626</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>6980778.7234</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>7520778.7234</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>7518471.807600001</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>7518471.807600001</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>8847968.710900001</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>10177968.7109</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>10153973.83</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>7113934.199900001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>8823934.199900001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>8823934.199900001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>8823934.199900001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>8823934.199900001</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>8823934.199900001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>8823934.199900001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>10223934.1999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>10223934.1999</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>8223934.199900001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>8223934.199900001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>8223934.199900001</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>7423408.745600001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>7423408.745600001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>7623408.745600001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>7422983.8144</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>7422983.8144</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>7422983.8144</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>7421855.002200001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>7418286.413000001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>9818286.413000001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>9818286.413000001</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>9817706.603</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>9813737.381899999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>10808304.9323</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>10808304.9323</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>10808304.9323</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>10808304.9323</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>13608304.9323</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>1581670.2329</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>1581670.2329</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>1581670.2329</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>1785670.2329</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>1852365.1541</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -7447,11 +7447,17 @@
         <v>-4963915.399383101</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>74.3</v>
+      </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7480,11 +7486,17 @@
         <v>-4963915.399383101</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>74.3</v>
+      </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7513,11 +7525,17 @@
         <v>-4984039.9883831</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>74.3</v>
+      </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7546,11 +7564,17 @@
         <v>-4984039.9883831</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>74.2</v>
+      </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7579,11 +7603,17 @@
         <v>-4984039.9883831</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>74.2</v>
+      </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7612,11 +7642,17 @@
         <v>-4984039.9883831</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>74.2</v>
+      </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7645,11 +7681,17 @@
         <v>-4984039.9883831</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>74.2</v>
+      </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7678,11 +7720,17 @@
         <v>-4982633.079783101</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>74.2</v>
+      </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7711,11 +7759,17 @@
         <v>-4982676.079783101</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7748,7 +7802,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7777,11 +7835,17 @@
         <v>-4986264.727783101</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>74.2</v>
+      </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7814,7 +7878,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7847,7 +7915,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7880,7 +7952,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7909,11 +7985,17 @@
         <v>-5038321.656883101</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7942,11 +8024,17 @@
         <v>-5038321.656883101</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7975,11 +8063,17 @@
         <v>-5038060.003183101</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8008,11 +8102,17 @@
         <v>-5047223.032483101</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>74.3</v>
+      </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8041,11 +8141,17 @@
         <v>-5047223.032483101</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8074,11 +8180,17 @@
         <v>-5047223.032483101</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8107,11 +8219,17 @@
         <v>-5047223.032483101</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8140,11 +8258,17 @@
         <v>-5047223.032483101</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8173,11 +8297,17 @@
         <v>-5047223.032483101</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8206,11 +8336,17 @@
         <v>-5048393.681583101</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8239,15 +8375,17 @@
         <v>-5047708.684283101</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>74</v>
       </c>
-      <c r="J238" t="n">
-        <v>74</v>
-      </c>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8276,17 +8414,15 @@
         <v>-5047708.684283101</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>74.09999999999999</v>
       </c>
-      <c r="J239" t="n">
-        <v>74</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L239" t="n">
@@ -8317,17 +8453,15 @@
         <v>-5047708.684283101</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>74.09999999999999</v>
       </c>
-      <c r="J240" t="n">
-        <v>74</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L240" t="n">
@@ -8358,15 +8492,17 @@
         <v>-5039545.724283101</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
         <v>74.09999999999999</v>
       </c>
-      <c r="J241" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8395,17 +8531,15 @@
         <v>-5039545.724283101</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
         <v>74.3</v>
       </c>
-      <c r="J242" t="n">
-        <v>74.09999999999999</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L242" t="n">
@@ -8436,17 +8570,15 @@
         <v>-5039545.724283101</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>74.3</v>
       </c>
-      <c r="J243" t="n">
-        <v>74.09999999999999</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L243" t="n">
@@ -8477,11 +8609,17 @@
         <v>-5032545.275483101</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>74.3</v>
+      </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8510,11 +8648,17 @@
         <v>-5032545.275483101</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>74.5</v>
+      </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8543,11 +8687,17 @@
         <v>-5032545.275483101</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>74.5</v>
+      </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8576,11 +8726,17 @@
         <v>-5032535.275483101</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>74.5</v>
+      </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8613,7 +8769,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8646,7 +8806,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8679,7 +8843,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8712,7 +8880,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8745,7 +8917,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8774,11 +8950,17 @@
         <v>-5033215.7784831</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>74.59999999999999</v>
+      </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8807,11 +8989,17 @@
         <v>-5033215.7784831</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>74.59999999999999</v>
+      </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8840,11 +9028,17 @@
         <v>-5033215.7784831</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>74.59999999999999</v>
+      </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8873,15 +9067,17 @@
         <v>-5033215.7784831</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I256" t="n">
         <v>74.59999999999999</v>
       </c>
-      <c r="J256" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8913,12 +9109,10 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>74.59999999999999</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L257" t="n">
@@ -8952,12 +9146,10 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>74.59999999999999</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L258" t="n">
@@ -8992,7 +9184,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9025,7 +9221,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9058,7 +9258,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9091,7 +9295,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9124,7 +9332,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9157,7 +9369,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9186,11 +9402,17 @@
         <v>-5033215.7784831</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>74.59999999999999</v>
+      </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9219,11 +9441,17 @@
         <v>-5033215.7784831</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>74.59999999999999</v>
+      </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9252,11 +9480,17 @@
         <v>-5033215.7784831</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>74.59999999999999</v>
+      </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9285,11 +9519,17 @@
         <v>-5033215.7784831</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>74.59999999999999</v>
+      </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9318,11 +9558,17 @@
         <v>-5033115.7784831</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>74.59999999999999</v>
+      </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9351,11 +9597,17 @@
         <v>-5086375.8321831</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>74.7</v>
+      </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9384,11 +9636,17 @@
         <v>-5086375.8321831</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>74.59999999999999</v>
+      </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9417,15 +9675,17 @@
         <v>-5086375.8321831</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>74.59999999999999</v>
       </c>
-      <c r="J272" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9454,15 +9714,15 @@
         <v>-5093791.1001831</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L273" t="n">
@@ -9493,14 +9753,12 @@
         <v>-5093657.23137454</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I274" t="n">
         <v>74.5</v>
       </c>
-      <c r="J274" t="n">
-        <v>74.59999999999999</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9534,12 +9792,12 @@
         <v>-5093701.938974541</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>74.7</v>
+      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9573,12 +9831,12 @@
         <v>-5093701.938974541</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9612,12 +9870,12 @@
         <v>-5086431.597774411</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9651,12 +9909,12 @@
         <v>-5086431.597774411</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9690,12 +9948,12 @@
         <v>-5086431.597774411</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9729,12 +9987,12 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9768,12 +10026,12 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9807,12 +10065,12 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9846,12 +10104,12 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9885,14 +10143,12 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>74.5</v>
       </c>
-      <c r="J284" t="n">
-        <v>74.59999999999999</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9926,14 +10182,12 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I285" t="n">
         <v>74.5</v>
       </c>
-      <c r="J285" t="n">
-        <v>74.59999999999999</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9967,14 +10221,12 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I286" t="n">
         <v>74.5</v>
       </c>
-      <c r="J286" t="n">
-        <v>74.59999999999999</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10008,12 +10260,12 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10047,12 +10299,12 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10086,12 +10338,12 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10125,12 +10377,12 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10164,12 +10416,12 @@
         <v>-5111368.774874411</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10203,12 +10455,12 @@
         <v>-5111368.774874411</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10242,12 +10494,12 @@
         <v>-5114890.274874411</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10281,12 +10533,12 @@
         <v>-5114890.274874411</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10320,12 +10572,12 @@
         <v>-5114890.274874411</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10359,12 +10611,12 @@
         <v>-5114890.274874411</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10398,12 +10650,12 @@
         <v>-5114890.274874411</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10437,14 +10689,12 @@
         <v>-5114890.274874411</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I298" t="n">
         <v>74.3</v>
       </c>
-      <c r="J298" t="n">
-        <v>74.59999999999999</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10478,12 +10728,12 @@
         <v>-5114890.274874411</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10517,12 +10767,12 @@
         <v>-5114890.274874411</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10556,14 +10806,12 @@
         <v>-5114890.274874411</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I301" t="n">
         <v>74.3</v>
       </c>
-      <c r="J301" t="n">
-        <v>74.59999999999999</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10597,12 +10845,12 @@
         <v>-5114890.274874411</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10636,12 +10884,12 @@
         <v>-5107513.04487441</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10675,12 +10923,12 @@
         <v>-5106913.04487441</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10714,12 +10962,12 @@
         <v>-5111204.522560731</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10756,9 +11004,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>74.59999999999999</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10792,12 +11038,12 @@
         <v>-5103169.275160731</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10834,9 +11080,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>74.59999999999999</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10870,12 +11114,12 @@
         <v>-5091227.779060731</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10909,12 +11153,12 @@
         <v>-5091227.779060731</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10951,9 +11195,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>74.59999999999999</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10987,12 +11229,12 @@
         <v>-5090049.792260731</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11026,12 +11268,12 @@
         <v>-5090072.76006073</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11065,12 +11307,12 @@
         <v>-5090072.76006073</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11104,12 +11346,12 @@
         <v>-5090003.56436073</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11143,12 +11385,12 @@
         <v>-5091369.17586073</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11182,12 +11424,12 @@
         <v>-5091369.17586073</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11221,12 +11463,12 @@
         <v>-5090714.95336073</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11260,12 +11502,12 @@
         <v>-5096704.50206073</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11299,12 +11541,12 @@
         <v>-5096704.50206073</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11338,12 +11580,12 @@
         <v>-5119151.20276073</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11377,12 +11619,12 @@
         <v>-5124509.35276073</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11416,12 +11658,12 @@
         <v>-5124509.35276073</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11455,12 +11697,12 @@
         <v>-4977283.04796073</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11494,12 +11736,12 @@
         <v>-4977283.04796073</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11533,12 +11775,12 @@
         <v>-4920906.483560731</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11572,12 +11814,12 @@
         <v>-4920906.483560731</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11611,12 +11853,12 @@
         <v>-4920906.483560731</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11650,12 +11892,12 @@
         <v>-4920906.483560731</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11689,12 +11931,12 @@
         <v>-4920906.483560731</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11728,12 +11970,12 @@
         <v>-4928906.483560731</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11767,12 +12009,12 @@
         <v>-4928906.483560731</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11806,12 +12048,12 @@
         <v>-4893435.021760731</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11845,12 +12087,12 @@
         <v>-4798566.030460731</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11887,9 +12129,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>74.59999999999999</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11926,9 +12166,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>74.59999999999999</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11965,9 +12203,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>74.59999999999999</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12004,9 +12240,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>74.59999999999999</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12043,9 +12277,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>74.59999999999999</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12082,9 +12314,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>74.59999999999999</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12121,9 +12351,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>74.59999999999999</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12160,9 +12388,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>74.59999999999999</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12199,9 +12425,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>74.59999999999999</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12238,9 +12462,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>74.59999999999999</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12277,9 +12499,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>74.59999999999999</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12316,9 +12536,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>74.59999999999999</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12352,19 +12570,17 @@
         <v>-4761896.353360731</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>74.59999999999999</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L347" t="n">
-        <v>1.003042895442359</v>
+        <v>1</v>
       </c>
       <c r="M347" t="inlineStr"/>
     </row>
@@ -12391,11 +12607,15 @@
         <v>-4761896.353360731</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12428,7 +12648,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12457,11 +12681,15 @@
         <v>-4757762.514260731</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12494,7 +12722,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12527,7 +12759,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12560,7 +12796,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12593,7 +12833,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12622,11 +12866,15 @@
         <v>-4764380.924460731</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12655,11 +12903,15 @@
         <v>-4715054.696995471</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12688,11 +12940,15 @@
         <v>-4715849.138395471</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12721,11 +12977,15 @@
         <v>-4708886.01799547</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12754,11 +13014,15 @@
         <v>-4708886.01799547</v>
       </c>
       <c r="H359" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12787,11 +13051,15 @@
         <v>-4708886.01799547</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12820,11 +13088,15 @@
         <v>-4708886.01799547</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12853,11 +13125,15 @@
         <v>-4708886.01799547</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12886,11 +13162,15 @@
         <v>-4708886.01799547</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12919,11 +13199,15 @@
         <v>-4717833.99959547</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12956,7 +13240,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12985,11 +13273,17 @@
         <v>-4800065.03759547</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>75</v>
+      </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13018,11 +13312,17 @@
         <v>-4800065.03759547</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>75</v>
+      </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13051,11 +13351,17 @@
         <v>-4800065.03759547</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>75</v>
+      </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13084,11 +13390,17 @@
         <v>-3926522.93689547</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>75</v>
+      </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13117,11 +13429,17 @@
         <v>-3926522.93689547</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>75.09999999999999</v>
+      </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13150,11 +13468,17 @@
         <v>-5249634.60639547</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>75.09999999999999</v>
+      </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13183,11 +13507,17 @@
         <v>-5249634.60639547</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13216,11 +13546,17 @@
         <v>-5249634.60639547</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13249,11 +13585,17 @@
         <v>-5249634.60639547</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13282,11 +13624,17 @@
         <v>-5155199.46929547</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13315,11 +13663,17 @@
         <v>-5157442.06929547</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>75.09999999999999</v>
+      </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13348,11 +13702,17 @@
         <v>-3222442.06929547</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>75</v>
+      </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13381,11 +13741,17 @@
         <v>-3225630.58759547</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>75.09999999999999</v>
+      </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13414,11 +13780,17 @@
         <v>-3212017.19469547</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>75</v>
+      </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13447,11 +13819,17 @@
         <v>-3221138.60469547</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>75.09999999999999</v>
+      </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13480,11 +13858,17 @@
         <v>-3006138.60469547</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>75</v>
+      </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13513,11 +13897,17 @@
         <v>-3006073.99039547</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>75.09999999999999</v>
+      </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13546,11 +13936,17 @@
         <v>-3031855.88909547</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>75.2</v>
+      </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13583,7 +13979,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13616,7 +14016,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13649,7 +14053,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13682,7 +14090,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13715,7 +14127,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13748,7 +14164,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13781,7 +14201,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13814,7 +14238,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13847,7 +14275,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13880,7 +14312,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13913,7 +14349,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13946,7 +14386,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13979,7 +14423,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14012,7 +14460,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14045,7 +14497,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14078,7 +14534,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14111,7 +14571,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14144,7 +14608,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14177,7 +14645,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14210,7 +14682,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14243,7 +14719,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14276,7 +14756,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14309,7 +14793,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14342,7 +14830,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14375,7 +14867,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14408,7 +14904,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14441,7 +14941,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14474,7 +14978,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14507,7 +15015,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14540,7 +15052,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14573,7 +15089,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14606,7 +15126,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14639,7 +15163,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14672,7 +15200,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14705,7 +15237,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14738,7 +15274,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14771,7 +15311,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14804,7 +15348,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14837,7 +15385,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14870,7 +15422,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14903,7 +15459,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14936,7 +15496,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14969,7 +15533,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15002,7 +15570,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15035,7 +15607,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15068,7 +15644,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15101,7 +15681,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15134,7 +15718,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15167,7 +15755,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15200,7 +15792,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15233,7 +15829,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15266,7 +15866,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15299,7 +15903,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15332,7 +15940,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15365,7 +15977,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15398,7 +16014,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15431,7 +16051,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15464,7 +16088,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15497,7 +16125,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15530,7 +16162,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15563,7 +16199,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15596,7 +16236,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15629,7 +16273,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15662,7 +16310,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15695,7 +16347,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15728,7 +16384,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15761,7 +16421,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15794,7 +16458,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15827,7 +16495,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15860,7 +16532,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15893,7 +16569,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15922,11 +16602,17 @@
         <v>-5444664.687658351</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>74.2</v>
+      </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15955,11 +16641,17 @@
         <v>-4564664.687658351</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>74.3</v>
+      </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15992,7 +16684,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16021,11 +16717,17 @@
         <v>-4564664.687658351</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16054,11 +16756,17 @@
         <v>-4564664.687658351</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16091,7 +16799,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16120,11 +16832,17 @@
         <v>-5470737.90465835</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>74.3</v>
+      </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16157,7 +16875,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16186,11 +16908,17 @@
         <v>-5466042.534358351</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>74.3</v>
+      </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16219,11 +16947,17 @@
         <v>-5448734.41835835</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>74.3</v>
+      </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16256,7 +16990,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16285,11 +17023,17 @@
         <v>-5505435.872658351</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>74.3</v>
+      </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16318,11 +17062,17 @@
         <v>-5555002.32615835</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>74.2</v>
+      </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16351,11 +17101,17 @@
         <v>-5536119.44525835</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16384,11 +17140,17 @@
         <v>-5096119.44525835</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>74.2</v>
+      </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16417,11 +17179,17 @@
         <v>-5096119.44525835</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>74.3</v>
+      </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16450,11 +17218,17 @@
         <v>-5111444.76265835</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>74.3</v>
+      </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16483,11 +17257,17 @@
         <v>-5111444.76265835</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>74.2</v>
+      </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16516,11 +17296,17 @@
         <v>-5198467.01795835</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>74.2</v>
+      </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16549,11 +17335,17 @@
         <v>-5198467.01795835</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16582,11 +17374,17 @@
         <v>-5180781.85145835</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16615,11 +17413,17 @@
         <v>-4984681.353958351</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>74.8</v>
+      </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16652,7 +17456,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16685,7 +17493,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16718,7 +17530,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16751,7 +17567,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16784,7 +17604,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16817,7 +17641,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16850,7 +17678,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16883,7 +17715,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16916,7 +17752,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16945,11 +17785,17 @@
         <v>-4705542.91305835</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>74.8</v>
+      </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16982,7 +17828,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17015,7 +17865,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17048,7 +17902,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17081,7 +17939,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17114,13 +17976,17 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
       <c r="M491" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest XLM.xlsx
+++ b/BackTest/2019-10-19 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>5805125.714500001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>6030125.714500001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>6030125.714500001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>6030125.714500001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>8847968.710900001</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>7113934.199900001</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>8823934.199900001</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>8823934.199900001</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>8823934.199900001</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>8823934.199900001</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>8823934.199900001</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>8823934.199900001</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>10223934.1999</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>10223934.1999</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>8223934.199900001</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>8223934.199900001</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>8223934.199900001</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>7423408.745600001</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>7423408.745600001</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>7623408.745600001</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>7422983.8144</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>7422983.8144</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>7422983.8144</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>7421855.002200001</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>7418286.413000001</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>9818286.413000001</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>9818286.413000001</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>9817706.603</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>9813737.381899999</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>10808304.9323</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>10808304.9323</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>10808304.9323</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>10808304.9323</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>13608304.9323</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -7447,17 +7447,11 @@
         <v>-4963915.399383101</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>74.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7486,17 +7480,11 @@
         <v>-4963915.399383101</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>74.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7525,17 +7513,11 @@
         <v>-4984039.9883831</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>74.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7564,17 +7546,11 @@
         <v>-4984039.9883831</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>74.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7603,17 +7579,11 @@
         <v>-4984039.9883831</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>74.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7642,17 +7612,11 @@
         <v>-4984039.9883831</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>74.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7681,17 +7645,11 @@
         <v>-4984039.9883831</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>74.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7720,17 +7678,11 @@
         <v>-4982633.079783101</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>74.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7759,17 +7711,11 @@
         <v>-4982676.079783101</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>74.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7802,11 +7748,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7835,17 +7777,11 @@
         <v>-4986264.727783101</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>74.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7878,11 +7814,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7915,11 +7847,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7952,11 +7880,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7985,17 +7909,11 @@
         <v>-5038321.656883101</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>74.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8024,17 +7942,11 @@
         <v>-5038321.656883101</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>74.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8063,17 +7975,11 @@
         <v>-5038060.003183101</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>74.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8102,17 +8008,11 @@
         <v>-5047223.032483101</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>74.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8141,17 +8041,11 @@
         <v>-5047223.032483101</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>74.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8180,17 +8074,11 @@
         <v>-5047223.032483101</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>74.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8219,17 +8107,11 @@
         <v>-5047223.032483101</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>74.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8258,17 +8140,11 @@
         <v>-5047223.032483101</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>74.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8297,17 +8173,11 @@
         <v>-5047223.032483101</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>74.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8336,17 +8206,11 @@
         <v>-5048393.681583101</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>74.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8375,17 +8239,11 @@
         <v>-5047708.684283101</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8414,17 +8272,11 @@
         <v>-5047708.684283101</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>74.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8453,17 +8305,11 @@
         <v>-5047708.684283101</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>74.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8492,17 +8338,11 @@
         <v>-5039545.724283101</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>74.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8531,17 +8371,11 @@
         <v>-5039545.724283101</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>74.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8570,17 +8404,11 @@
         <v>-5039545.724283101</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>74.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8609,17 +8437,11 @@
         <v>-5032545.275483101</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>74.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8648,17 +8470,11 @@
         <v>-5032545.275483101</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8687,17 +8503,11 @@
         <v>-5032545.275483101</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8726,17 +8536,11 @@
         <v>-5032535.275483101</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8769,11 +8573,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8806,11 +8606,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8843,11 +8639,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8880,11 +8672,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8917,11 +8705,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8950,17 +8734,11 @@
         <v>-5033215.7784831</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8989,17 +8767,11 @@
         <v>-5033215.7784831</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9028,17 +8800,11 @@
         <v>-5033215.7784831</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9067,17 +8833,11 @@
         <v>-5033215.7784831</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9110,11 +8870,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9147,11 +8903,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9184,11 +8936,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9221,11 +8969,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9258,11 +9002,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9295,11 +9035,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9332,11 +9068,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9369,11 +9101,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9402,17 +9130,11 @@
         <v>-5033215.7784831</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9441,17 +9163,11 @@
         <v>-5033215.7784831</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9480,17 +9196,11 @@
         <v>-5033215.7784831</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9519,17 +9229,11 @@
         <v>-5033215.7784831</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9558,17 +9262,11 @@
         <v>-5033115.7784831</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9597,17 +9295,11 @@
         <v>-5086375.8321831</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>74.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9636,17 +9328,11 @@
         <v>-5086375.8321831</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9675,17 +9361,11 @@
         <v>-5086375.8321831</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9714,17 +9394,11 @@
         <v>-5093791.1001831</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9753,17 +9427,11 @@
         <v>-5093657.23137454</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9792,17 +9460,11 @@
         <v>-5093701.938974541</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>74.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9831,17 +9493,11 @@
         <v>-5093701.938974541</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9870,17 +9526,11 @@
         <v>-5086431.597774411</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9909,17 +9559,11 @@
         <v>-5086431.597774411</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9948,17 +9592,11 @@
         <v>-5086431.597774411</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9987,17 +9625,11 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10026,17 +9658,11 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10065,17 +9691,11 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10104,17 +9724,11 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10143,17 +9757,11 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10182,17 +9790,11 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10221,17 +9823,11 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10260,17 +9856,11 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10299,17 +9889,11 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10338,17 +9922,11 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10377,17 +9955,11 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10416,17 +9988,11 @@
         <v>-5111368.774874411</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10455,17 +10021,11 @@
         <v>-5111368.774874411</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>74.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10494,17 +10054,11 @@
         <v>-5114890.274874411</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>74.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10533,17 +10087,11 @@
         <v>-5114890.274874411</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>74.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10580,7 +10128,7 @@
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L295" t="n">
@@ -10962,11 +10510,9 @@
         <v>-5111204.522560731</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
@@ -11038,11 +10584,9 @@
         <v>-5103169.275160731</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
@@ -11114,11 +10658,9 @@
         <v>-5091227.779060731</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
@@ -11153,11 +10695,9 @@
         <v>-5091227.779060731</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
@@ -11229,11 +10769,9 @@
         <v>-5090049.792260731</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>74.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
@@ -11268,11 +10806,9 @@
         <v>-5090072.76006073</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
@@ -11307,11 +10843,9 @@
         <v>-5090072.76006073</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>74.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
@@ -11346,11 +10880,9 @@
         <v>-5090003.56436073</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>74.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
@@ -11385,11 +10917,9 @@
         <v>-5091369.17586073</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
@@ -11424,11 +10954,9 @@
         <v>-5091369.17586073</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>74.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
@@ -11463,11 +10991,9 @@
         <v>-5090714.95336073</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>74.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
@@ -11502,11 +11028,9 @@
         <v>-5096704.50206073</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
@@ -11541,11 +11065,9 @@
         <v>-5096704.50206073</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>74.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
@@ -11580,11 +11102,9 @@
         <v>-5119151.20276073</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>74.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
@@ -11619,11 +11139,9 @@
         <v>-5124509.35276073</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>74.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
@@ -11658,11 +11176,9 @@
         <v>-5124509.35276073</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>74.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
@@ -11697,11 +11213,9 @@
         <v>-4977283.04796073</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>74.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
@@ -11736,11 +11250,9 @@
         <v>-4977283.04796073</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>74.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
@@ -11775,11 +11287,9 @@
         <v>-4920906.483560731</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>74.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
@@ -11814,11 +11324,9 @@
         <v>-4920906.483560731</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>74.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
@@ -11853,11 +11361,9 @@
         <v>-4920906.483560731</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>74.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
@@ -11892,11 +11398,9 @@
         <v>-4920906.483560731</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>74.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
@@ -11931,11 +11435,9 @@
         <v>-4920906.483560731</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>74.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
@@ -11970,11 +11472,9 @@
         <v>-4928906.483560731</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>74.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
@@ -12009,11 +11509,9 @@
         <v>-4928906.483560731</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>74.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
@@ -12048,11 +11546,9 @@
         <v>-4893435.021760731</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>74.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
@@ -12087,11 +11583,9 @@
         <v>-4798566.030460731</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
@@ -12274,18 +11768,16 @@
         <v>-4753666.814560731</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L339" t="n">
-        <v>1</v>
-      </c>
+      <c r="L339" t="inlineStr"/>
       <c r="M339" t="inlineStr"/>
     </row>
     <row r="340">
@@ -12311,15 +11803,11 @@
         <v>-4750963.814560731</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12348,15 +11836,11 @@
         <v>-4750963.814560731</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12385,15 +11869,11 @@
         <v>-4750963.814560731</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12422,15 +11902,11 @@
         <v>-4750963.814560731</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12459,15 +11935,11 @@
         <v>-4750963.814560731</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12496,15 +11968,11 @@
         <v>-4740763.043860731</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12533,15 +12001,11 @@
         <v>-4744775.953360731</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12574,11 +12038,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12611,11 +12071,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12648,11 +12104,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12685,11 +12137,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12722,11 +12170,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12759,11 +12203,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12796,11 +12236,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12833,11 +12269,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12870,11 +12302,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12907,11 +12335,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12944,11 +12368,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12981,11 +12401,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13018,11 +12434,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13055,11 +12467,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13092,11 +12500,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13129,11 +12533,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13166,11 +12566,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13203,11 +12599,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13240,11 +12632,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13273,17 +12661,11 @@
         <v>-4800065.03759547</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13312,17 +12694,11 @@
         <v>-4800065.03759547</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13351,17 +12727,11 @@
         <v>-4800065.03759547</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
-      </c>
-      <c r="I368" t="n">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13390,17 +12760,11 @@
         <v>-3926522.93689547</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
-      </c>
-      <c r="I369" t="n">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13429,17 +12793,11 @@
         <v>-3926522.93689547</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
-      </c>
-      <c r="I370" t="n">
-        <v>75.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13468,17 +12826,11 @@
         <v>-5249634.60639547</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
-      </c>
-      <c r="I371" t="n">
-        <v>75.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13507,17 +12859,11 @@
         <v>-5249634.60639547</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
-      </c>
-      <c r="I372" t="n">
-        <v>74.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13546,17 +12892,11 @@
         <v>-5249634.60639547</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>74.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13585,17 +12925,11 @@
         <v>-5249634.60639547</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>74.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13624,17 +12958,11 @@
         <v>-5155199.46929547</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>74.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13663,17 +12991,11 @@
         <v>-5157442.06929547</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>75.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13702,17 +13024,11 @@
         <v>-3222442.06929547</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13741,17 +13057,11 @@
         <v>-3225630.58759547</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
-      </c>
-      <c r="I378" t="n">
-        <v>75.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13780,17 +13090,11 @@
         <v>-3212017.19469547</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13819,17 +13123,11 @@
         <v>-3221138.60469547</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
-      </c>
-      <c r="I380" t="n">
-        <v>75.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13858,17 +13156,11 @@
         <v>-3006138.60469547</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
-      </c>
-      <c r="I381" t="n">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13897,17 +13189,11 @@
         <v>-3006073.99039547</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
-      </c>
-      <c r="I382" t="n">
-        <v>75.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13936,17 +13222,11 @@
         <v>-3031855.88909547</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
-      </c>
-      <c r="I383" t="n">
-        <v>75.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13979,11 +13259,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14016,11 +13292,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14053,11 +13325,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14090,11 +13358,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14127,11 +13391,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14164,11 +13424,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14201,11 +13457,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14238,11 +13490,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14275,11 +13523,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14312,11 +13556,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14349,11 +13589,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14386,11 +13622,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14423,11 +13655,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14460,11 +13688,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14497,11 +13721,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14534,11 +13754,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14571,11 +13787,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14608,11 +13820,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14645,11 +13853,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14682,11 +13886,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14719,11 +13919,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14756,11 +13952,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14793,11 +13985,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14830,11 +14018,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14867,11 +14051,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14904,11 +14084,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14941,11 +14117,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14978,11 +14150,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15015,11 +14183,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15052,11 +14216,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15089,11 +14249,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15126,11 +14282,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15163,11 +14315,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15200,11 +14348,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15237,11 +14381,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15274,11 +14414,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15311,11 +14447,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15348,11 +14480,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15385,11 +14513,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15422,11 +14546,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15459,11 +14579,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15496,11 +14612,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15533,11 +14645,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15570,11 +14678,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15607,11 +14711,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15644,11 +14744,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15681,11 +14777,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15718,11 +14810,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15755,11 +14843,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15792,11 +14876,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15829,11 +14909,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15866,11 +14942,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15903,11 +14975,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15940,11 +15008,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15977,11 +15041,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16014,11 +15074,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16051,11 +15107,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16088,11 +15140,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16125,11 +15173,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16162,11 +15206,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16199,11 +15239,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16236,11 +15272,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16273,11 +15305,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16310,11 +15338,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16347,11 +15371,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16384,11 +15404,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16421,11 +15437,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16458,11 +15470,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16495,11 +15503,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16532,11 +15536,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16569,11 +15569,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16602,17 +15598,11 @@
         <v>-5444664.687658351</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
-      </c>
-      <c r="I455" t="n">
-        <v>74.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16641,17 +15631,11 @@
         <v>-4564664.687658351</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
-      </c>
-      <c r="I456" t="n">
-        <v>74.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16684,11 +15668,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16717,17 +15697,11 @@
         <v>-4564664.687658351</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
-      </c>
-      <c r="I458" t="n">
-        <v>74.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16756,17 +15730,11 @@
         <v>-4564664.687658351</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
-      </c>
-      <c r="I459" t="n">
-        <v>74.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16799,11 +15767,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16832,17 +15796,11 @@
         <v>-5470737.90465835</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
-      </c>
-      <c r="I461" t="n">
-        <v>74.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16875,11 +15833,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16908,17 +15862,11 @@
         <v>-5466042.534358351</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
-      </c>
-      <c r="I463" t="n">
-        <v>74.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16947,17 +15895,11 @@
         <v>-5448734.41835835</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
-      </c>
-      <c r="I464" t="n">
-        <v>74.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16990,11 +15932,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17023,17 +15961,11 @@
         <v>-5505435.872658351</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
-      </c>
-      <c r="I466" t="n">
-        <v>74.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17062,17 +15994,11 @@
         <v>-5555002.32615835</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
-      </c>
-      <c r="I467" t="n">
-        <v>74.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17101,17 +16027,11 @@
         <v>-5536119.44525835</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
-      </c>
-      <c r="I468" t="n">
-        <v>74.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17140,17 +16060,11 @@
         <v>-5096119.44525835</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
-      </c>
-      <c r="I469" t="n">
-        <v>74.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17179,17 +16093,11 @@
         <v>-5096119.44525835</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
-      </c>
-      <c r="I470" t="n">
-        <v>74.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17218,17 +16126,11 @@
         <v>-5111444.76265835</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
-      </c>
-      <c r="I471" t="n">
-        <v>74.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17257,17 +16159,11 @@
         <v>-5111444.76265835</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
-      </c>
-      <c r="I472" t="n">
-        <v>74.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17296,17 +16192,11 @@
         <v>-5198467.01795835</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
-      </c>
-      <c r="I473" t="n">
-        <v>74.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17335,17 +16225,11 @@
         <v>-5198467.01795835</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
-      </c>
-      <c r="I474" t="n">
-        <v>74.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17374,17 +16258,11 @@
         <v>-5180781.85145835</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
-      </c>
-      <c r="I475" t="n">
-        <v>74.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17413,17 +16291,11 @@
         <v>-4984681.353958351</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
-      </c>
-      <c r="I476" t="n">
-        <v>74.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17456,11 +16328,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17493,11 +16361,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17530,11 +16394,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17567,11 +16427,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17604,11 +16460,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17641,11 +16493,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17678,11 +16526,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17715,11 +16559,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17752,11 +16592,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17785,17 +16621,11 @@
         <v>-4705542.91305835</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
-      </c>
-      <c r="I486" t="n">
-        <v>74.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17828,11 +16658,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17865,11 +16691,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17902,11 +16724,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17939,11 +16757,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17976,17 +16790,13 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
       <c r="M491" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest XLM.xlsx
+++ b/BackTest/2019-10-19 BackTest XLM.xlsx
@@ -550,7 +550,7 @@
         <v>5805125.714500001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>6030125.714500001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>6030125.714500001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>6030125.714500001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>5712904.9743</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>5712904.9743</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>6260778.7234</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>7520778.7234</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>7518471.807600001</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>8847968.710900001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>10177968.7109</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>10177968.7109</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>10146816.3086</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>10153973.83</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>7113934.199900001</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>7113934.199900001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>7113934.199900001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>8823934.199900001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>8823934.199900001</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>8823934.199900001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>8823934.199900001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>10223934.1999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>10223934.1999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>8223934.199900001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>8223934.199900001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>8223934.199900001</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>7423408.745600001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>7423408.745600001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>7623408.745600001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>7422983.8144</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>7422983.8144</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>7422983.8144</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>7418286.413000001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -7975,10 +7975,14 @@
         <v>-5038060.003183101</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="J230" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
@@ -8011,8 +8015,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8044,8 +8054,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8077,8 +8093,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8107,11 +8129,19 @@
         <v>-5047223.032483101</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="J234" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8140,11 +8170,19 @@
         <v>-5047223.032483101</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="J235" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8173,11 +8211,19 @@
         <v>-5047223.032483101</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="J236" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8206,11 +8252,19 @@
         <v>-5048393.681583101</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="J237" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8239,11 +8293,19 @@
         <v>-5047708.684283101</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>74</v>
+      </c>
+      <c r="J238" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8272,11 +8334,19 @@
         <v>-5047708.684283101</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="J239" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8305,11 +8375,19 @@
         <v>-5047708.684283101</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="J240" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8338,11 +8416,19 @@
         <v>-5039545.724283101</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="J241" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8371,11 +8457,19 @@
         <v>-5039545.724283101</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="J242" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8404,11 +8498,19 @@
         <v>-5039545.724283101</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="J243" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8437,11 +8539,19 @@
         <v>-5032545.275483101</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="J244" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8473,8 +8583,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8506,8 +8622,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8539,8 +8661,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8572,8 +8700,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8605,8 +8739,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8638,8 +8778,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8671,8 +8817,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8704,8 +8856,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8737,8 +8895,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8770,8 +8934,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8803,8 +8973,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8836,8 +9012,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8869,8 +9051,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8902,8 +9090,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8935,8 +9129,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8968,8 +9168,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9001,8 +9207,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9034,8 +9246,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9064,11 +9282,19 @@
         <v>-5033215.7784831</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="J263" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9097,11 +9323,19 @@
         <v>-5033215.7784831</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="J264" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9130,11 +9364,19 @@
         <v>-5033215.7784831</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="J265" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9163,11 +9405,19 @@
         <v>-5033215.7784831</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="J266" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9196,11 +9446,19 @@
         <v>-5033215.7784831</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="J267" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9229,11 +9487,19 @@
         <v>-5033215.7784831</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="J268" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9262,11 +9528,19 @@
         <v>-5033115.7784831</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="J269" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9295,11 +9569,19 @@
         <v>-5086375.8321831</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>74.7</v>
+      </c>
+      <c r="J270" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9328,11 +9610,19 @@
         <v>-5086375.8321831</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="J271" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9361,11 +9651,19 @@
         <v>-5086375.8321831</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="J272" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9394,11 +9692,19 @@
         <v>-5093791.1001831</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="J273" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9427,11 +9733,19 @@
         <v>-5093657.23137454</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J274" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9460,11 +9774,19 @@
         <v>-5093701.938974541</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>74.7</v>
+      </c>
+      <c r="J275" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9493,11 +9815,19 @@
         <v>-5093701.938974541</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J276" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9526,11 +9856,19 @@
         <v>-5086431.597774411</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J277" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9559,11 +9897,19 @@
         <v>-5086431.597774411</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="J278" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9592,11 +9938,19 @@
         <v>-5086431.597774411</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="J279" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9625,11 +9979,19 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="J280" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9658,11 +10020,19 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J281" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9691,11 +10061,19 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J282" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9724,11 +10102,19 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J283" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9757,11 +10143,19 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J284" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9790,11 +10184,19 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J285" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9823,11 +10225,19 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J286" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9856,11 +10266,19 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J287" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9889,11 +10307,19 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J288" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9922,11 +10348,19 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J289" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9955,11 +10389,19 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J290" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9988,11 +10430,19 @@
         <v>-5111368.774874411</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J291" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10021,11 +10471,19 @@
         <v>-5111368.774874411</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="J292" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10054,11 +10512,19 @@
         <v>-5114890.274874411</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="J293" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10087,11 +10553,19 @@
         <v>-5114890.274874411</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="J294" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10125,10 +10599,12 @@
       <c r="I295" t="n">
         <v>74.3</v>
       </c>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L295" t="n">
@@ -10164,7 +10640,9 @@
       <c r="I296" t="n">
         <v>74.3</v>
       </c>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10203,7 +10681,9 @@
       <c r="I297" t="n">
         <v>74.3</v>
       </c>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10242,7 +10722,9 @@
       <c r="I298" t="n">
         <v>74.3</v>
       </c>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10276,12 +10758,12 @@
         <v>-5114890.274874411</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="J299" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10315,12 +10797,12 @@
         <v>-5114890.274874411</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="J300" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10354,12 +10836,12 @@
         <v>-5114890.274874411</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="J301" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10393,12 +10875,12 @@
         <v>-5114890.274874411</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="J302" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10432,12 +10914,12 @@
         <v>-5107513.04487441</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="J303" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10471,12 +10953,12 @@
         <v>-5106913.04487441</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="J304" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10513,7 +10995,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10550,7 +11034,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10587,7 +11073,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10624,7 +11112,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10661,7 +11151,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10698,7 +11190,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10735,7 +11229,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10772,7 +11268,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10809,7 +11307,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10846,7 +11346,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10883,7 +11385,9 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10920,7 +11424,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10957,7 +11463,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10994,7 +11502,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11031,7 +11541,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11068,7 +11580,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11105,7 +11619,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11142,7 +11658,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11179,7 +11697,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11213,10 +11733,14 @@
         <v>-4977283.04796073</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="J324" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11253,7 +11777,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11290,7 +11816,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11327,7 +11855,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11364,7 +11894,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11401,7 +11933,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11438,7 +11972,9 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11475,7 +12011,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11512,7 +12050,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11549,7 +12089,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11586,7 +12128,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11623,7 +12167,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11660,7 +12206,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11697,7 +12245,9 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11734,7 +12284,9 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11768,16 +12320,20 @@
         <v>-4753666.814560731</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L339" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
       <c r="M339" t="inlineStr"/>
     </row>
     <row r="340">
@@ -11803,11 +12359,17 @@
         <v>-4750963.814560731</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11836,11 +12398,17 @@
         <v>-4750963.814560731</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11869,11 +12437,17 @@
         <v>-4750963.814560731</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11902,11 +12476,17 @@
         <v>-4750963.814560731</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11935,11 +12515,17 @@
         <v>-4750963.814560731</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11968,11 +12554,17 @@
         <v>-4740763.043860731</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12001,11 +12593,17 @@
         <v>-4744775.953360731</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12037,8 +12635,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12070,8 +12674,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12103,8 +12713,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12136,8 +12752,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12169,8 +12791,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12202,8 +12830,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12235,8 +12869,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12268,8 +12908,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12301,8 +12947,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12334,8 +12986,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12367,8 +13025,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12400,8 +13064,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12433,8 +13103,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12466,8 +13142,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12499,8 +13181,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12532,8 +13220,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12565,8 +13259,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12598,8 +13298,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12631,8 +13337,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12664,8 +13376,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12697,8 +13415,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12730,8 +13454,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12763,8 +13493,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12796,8 +13532,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12829,8 +13571,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12862,8 +13610,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12895,8 +13649,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12928,8 +13688,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12961,8 +13727,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12994,8 +13766,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13027,8 +13805,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13060,8 +13844,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13093,8 +13883,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13126,8 +13922,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13159,8 +13961,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13192,8 +14000,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13225,8 +14039,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13258,8 +14078,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13291,8 +14117,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13324,8 +14156,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13357,8 +14195,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13390,8 +14234,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13423,8 +14273,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13456,8 +14312,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13489,8 +14351,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13522,8 +14390,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13555,8 +14429,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13588,8 +14468,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13621,8 +14507,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13654,8 +14546,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13687,8 +14585,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13720,8 +14624,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13753,8 +14663,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13786,8 +14702,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13819,8 +14741,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13852,8 +14780,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13885,8 +14819,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13918,8 +14858,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13951,8 +14897,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13984,8 +14936,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14017,8 +14975,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14050,8 +15014,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14083,8 +15053,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14116,8 +15092,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14149,8 +15131,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14182,8 +15170,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14215,8 +15209,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14248,8 +15248,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14281,8 +15287,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14314,8 +15326,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14347,8 +15365,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14380,8 +15404,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14413,8 +15443,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14446,8 +15482,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14479,8 +15521,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14512,8 +15560,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14545,8 +15599,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14578,8 +15638,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14611,8 +15677,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14644,8 +15716,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14677,8 +15755,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14710,8 +15794,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14743,8 +15833,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14776,8 +15872,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14809,8 +15911,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14842,8 +15950,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14875,8 +15989,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14908,8 +16028,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14941,8 +16067,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14974,8 +16106,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15007,8 +16145,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15040,8 +16184,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15073,8 +16223,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15106,8 +16262,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15139,8 +16301,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15172,8 +16340,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15205,8 +16379,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15238,8 +16418,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15271,8 +16457,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15304,8 +16496,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15337,8 +16535,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15370,8 +16574,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15403,8 +16613,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15436,8 +16652,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15469,8 +16691,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15502,8 +16730,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15535,8 +16769,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15568,8 +16808,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15601,8 +16847,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15634,8 +16886,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15667,8 +16925,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15700,8 +16964,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15733,8 +17003,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15766,8 +17042,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15799,8 +17081,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15832,8 +17120,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15865,8 +17159,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15898,8 +17198,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15931,8 +17237,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15964,8 +17276,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15997,8 +17315,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16030,8 +17354,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16063,8 +17393,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16096,8 +17432,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16129,8 +17471,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16162,8 +17510,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16195,8 +17549,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16228,8 +17588,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16261,8 +17627,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16294,8 +17666,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16327,8 +17705,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16360,8 +17744,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16393,8 +17783,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16426,8 +17822,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16459,8 +17861,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16492,8 +17900,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16525,8 +17939,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16558,8 +17978,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16591,8 +18017,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16624,8 +18056,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16657,8 +18095,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16690,8 +18134,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16723,8 +18173,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16756,8 +18212,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16789,8 +18251,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
